--- a/PCAstatic/PCAstatic_predicted_variables_matrix_11.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.2829037088706681</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2711236522117292</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2604630612584581</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2509789166890645</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2426948113793889</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2356067215860906</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2296876446522673</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2248919296285275</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2211592030322776</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2184179088900114</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2165884681700153</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2155860698039004</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2153231073920181</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.21571127772798</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.216663358944978</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2180946876591379</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2199243559226531</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2220761500345327</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2244792542034474</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2270687426475132</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.229785883912225</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2325782809850693</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2353998702066701</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2382108010672624</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2409772177897605</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2436709621976643</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2462692158078499</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2487540974308109</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2511122308534935</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2533342954643812</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2554145709914765</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2573504858890158</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.2591421773499345</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2607920694549131</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2623044746076308</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2636852221582878</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2649413169890212</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.266080629828292</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2671116201769824</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2680430919649834</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2688839814098</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2696431760128399</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2703293631979339</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>0.2265901679910353</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.235594976001145</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2439635920690561</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2515228965593004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2581591220605078</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2638081746647745</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2684466971235212</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.272084250550679</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2747564196801927</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2765187790634644</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2774416445520551</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2776055429789848</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2770973379162577</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2760069546133386</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2744246514012608</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2724387880277401</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.270134043685009</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2675900391790466</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2648803190647231</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2620716509022722</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2592236002759344</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2563883419782851</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2536106698547537</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2509281702153588</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2483715264071213</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2459649250292005</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2437265372817899</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2416690519880947</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2398002398428686</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2381235313592895</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2366385937597624</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2353418946498749</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2342272427041907</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2332862977637615</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2325090446921533</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.231884227059704</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2313997382297079</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2310429687138686</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2308011097588246</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2306614140337802</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2306114150254306</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2306391073253561</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2307330904321794</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1663383736520727</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1778395116831197</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1887445524132074</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1988875917422273</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2081494936808818</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.21645226682854</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2237530590693602</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2300387203713233</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2353207871554208</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2396309085340859</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2430167007613132</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2455380195824214</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2472636379712229</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.248268315751176</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2486302461044492</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2484288621671162</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2477429848512903</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.246649290926162</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2452210784344225</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2435273048965684</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2416318725895253</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2395931345464977</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2374635948270307</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2352897770219027</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2331122358283312</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2309656877808018</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2288792387681126</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2268766877252432</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2249768877828526</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2231941481204432</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2215386617449621</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2200169463590634</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2186322873565847</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2173851737599453</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2162737195755886</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2152940645759647</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.2144407499116674</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2137070652111946</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2130853649377518</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2125673527446991</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.212144333408008</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2118074326215702</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2115477855269487</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>-0.05978426428201429</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05294675490011965</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04711363106081755</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.04228740889292967</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.03844624664364959</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.03554871208014197</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.03353843373154164</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.03234804559518006</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03190262315744018</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.03212263381100994</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.03292644571891336</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.03423243229478454</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0359607081696694</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.03803453046302579</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.04038139763664095</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.04293387694480048</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.04563019043634693</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.0484145884743744</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.0512375386984857</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.05405575717500849</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05683210711417412</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05953538896857336</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.06214004398193808</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.06462579136891362</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.06697721732301713</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.06918333202250154</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07123710878092657</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07313501751344786</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07487656279605287</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.0764638350098924</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07790108140552954</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07919430240461052</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.08035087708583874</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08137922058035432</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.08228847502740147</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.0830882348105314</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08378830600161094</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08439849927715604</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.0849284550304982</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08538749897471115</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08578452620527943</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08612791145802896</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.0864254431466055</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>0.1702990551746469</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1822750548884255</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1926912780161422</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2015600765747661</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2089268978361798</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2148631178846163</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2194597660150288</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2228220402834059</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2250645751014417</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2263073899198183</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2266724579889673</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2262808378733751</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2252503156619761</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2236935099742753</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.221716395084974</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2194171997917908</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2168856412920521</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2142024546077288</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.2114391792821729</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.2086581663792025</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2059127703843343</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2032476925025488</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.2006994440689044</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1982969012946782</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1960619252920103</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1940100241712669</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1921510369036599</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1904898215103401</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1890269329131891</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1877592784105949</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1866807411860281</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1857827644932585</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1850548911753427</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1844852549596305</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1840610215293679</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1837687787105901</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1835948762411453</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1835257165198152</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1835479984822113</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1836489173321779</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1838163232891009</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1840388428092686</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.184305965919549</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.4330388197134167</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.423590294775267</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4147191837859106</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4065679576960822</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.399237482695958</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.3927926606459354</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.3872676044417258</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3826704240310561</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.3789876389834905</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3761882106759116</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.3742271948442861</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.373049020529382</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.372590405553997</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.3727829216160465</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.3735552243963298</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.3748349660016161</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3765504087007266</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.3786317602800797</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.3810122524229307</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.3836289842721053</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.3864235537480262</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.3893424992580976</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.3923375741639225</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3953658757981375</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.3983898499818439</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4013771909311799</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4043006552034474</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4071378069638479</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4098707103944849</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4124855835547743</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4149724264692109</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4173246346925487</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4195386081078518</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4216133632696971</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.423550156229952</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4253521214906515</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4270239315283673</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4285714802350786</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4300015926273391</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4313217622913159</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.432539917256713</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4336642143260718</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4347028613241352</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.2357501846757082</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.2238519745551925</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2123962457141735</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2015215855496274</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1913371786374209</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1819242087055868</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1733386016404688</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1656136723999211</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1587628228027191</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1527821996402103</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1476532757109625</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1433453178855049</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1398177150912288</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1370221451540337</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1349045650466659</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1334070141282283</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1324692245689092</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1320300373386099</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1320286258760363</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1324055328116744</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1331035278674664</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1340682972871877</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1352489768721136</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1365985419309471</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1380740682389006</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1396368784850415</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1412525887211973</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1428910690630668</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1445263323867733</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1461363640611799</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1477029049032131</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1492111985811729</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1506497136559582</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1520098493742323</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1532856332384536</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.154473417299964</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1555715790727495</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1565802319632275</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1575009491683444</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.158336504120099</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1590906297562614</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1597677981788067</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1603730216254331</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>-0.3845881600842341</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3713983870537207</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3583078718994723</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3457223715262769</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3339511730007305</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3232196016549241</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.313681262322124</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3054290353148599</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.2985050668262301</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.2929097640644536</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.2886098499901988</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.2855455295069426</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.2836368206371256</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.2827891028885126</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.2828979336107057</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.2838531819830639</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.2855425296226064</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.2878543865720887</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.2906802714220236</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.2939167042968042</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.2974666611831162</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3012406374462578</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3051573672821956</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.309144244267888</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3131374861264952</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.317082084378402</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3209315767835323</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3246476774825969</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3281997966006082</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3315644778640812</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3347247795727494</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3376696211151451</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3403931141721187</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3428938948503315</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3451744702574079</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3472405904926049</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3491006546960354</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3507651576845655</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3522461818076884</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3535569369818818</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3547113504035766</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3557237061920166</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3566083341644841</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.3833612870066999</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3935199662461148</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4021944867353188</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4094377951331033</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4153241265676573</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4199435807642855</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4233975666185389</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4257948576335315</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4272482129523621</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4278715061071305</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.427777314527091</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4270749276853071</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4258687363134486</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4242569682890656</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.4223307388625117</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4201733840684508</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4178600467924166</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4154574853556192</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4130240749078372</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4106099725689815</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.408257418244971</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4060011444019718</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4038688697979647</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.4018818541868336</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.4000554932505542</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3983999353942168</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.396920704473155</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3956193149366727</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3944938682065032</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3935396213117707</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3927495208408779</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3921146971217195</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.391624915192523</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3912689805725578</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3910350990874603</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3909111910554589</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3908851610092369</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3909451248267493</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3910795966876411</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3912776386754557</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3915289761251343</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3918240819859318</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.392154233546762</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>-0.2230097047363073</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2152714907852801</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2082401496519097</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.201972999895262</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.1965023494869234</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1918390171030514</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.1879757184054909</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.1848901929556964</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.1825480831138142</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.180905558325405</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.1799116834670985</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.1795105335524772</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.1796430600088336</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.1802487161791076</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.1812668518329542</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.1826378883570879</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.1843042879307433</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.1862113313437453</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.1883077201471111</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.1905460195174824</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.192882958564171</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.1952796048268947</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.1977014294338884</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2001182788542995</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2025042684306974</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.2048376119629882</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2071004005775736</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2092783429946993</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2113604781371599</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2133388698342651</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2152082921908587</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2169659130324401</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2186109817206008</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2201445265712378</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2215690661117873</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2228883374909403</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2241070445106553</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2252306269894538</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.226265052489779</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2272166308507275</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.22809185145932</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2288972427658819</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2296392531981336</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2022,132 @@
       <c r="E12" t="n">
         <v>-0.04963509266869764</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.0353554969241703</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.02376652827000539</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.01476215985380792</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.008191996893945348</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.0038732238946175</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.001600918817285038</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.001156739518121258</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.002316223770230767</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.004854842217670158</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.008552938634032434</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.01319967902157784</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.01859612080860774</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.02455750401058716</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.03091485830068577</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.0375160132917088</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.0442260936457949</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.05092757551440078</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.0575199759267206</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.06391924183780506</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.07005690047133981</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.07587902729576487</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.08134508248102851</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.08642666107205949</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.0911061964859321</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.09537565140184684</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.09923522476877555</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1026920985917834</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1057592434418907</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1084542973126937</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1107985285477238</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1128158900972737</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1145321693306132</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1159742350174966</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1171693808826747</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1181447633046551</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1189269292477863</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1195414293554466</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1200125102612288</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1203628795637685</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1206135365287875</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1207836613991936</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1208905561819648</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2165,132 @@
       <c r="E13" t="n">
         <v>-0.01236629561976237</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.01198960687777666</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.01184547773629059</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.01197309175559157</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.01239273265959242</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.0131091878908197</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.01411505114556643</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.01539355814779166</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.01692103831470209</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01866900805591129</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.02060594155224408</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.02269875059074425</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.02491400316768532</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.02721890842035074</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.0295820936246281</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.03197419737542121</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.03436830160847174</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.03674022375173478</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.0390686889520535</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.04133540096618703</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.04352502891249396</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.04562512564714712</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.04762599206672281</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.0495205001660965</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.05130388621948875</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.05297352402630248</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.05452868679292522</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.05597030492413792</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.0573007257861684</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.05852348038652856</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.05964306089862557</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.06066471204361417</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06159423852746609</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06243783001526306</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06320190450343269</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.063892970419181</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06451750732924282</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.06508186477130566</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.06559217842483071</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.06605430260706587</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06647375790835305</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.06685569266188925</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06720485687052979</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2308,132 @@
       <c r="E14" t="n">
         <v>0.1198047928002063</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.1463694817374719</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.1682092503979458</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.185456372873266</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.198338953423544</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2071563179979652</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2122580082128408</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.21402587425435</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.212859044177676</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2091614555018905</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2033316661385033</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.1957546837514366</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.1867955779900461</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.1767946624218298</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.1660640521677954</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.1548854191812167</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.1435087804615904</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1321521660768133</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1210020244647492</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.1102142327236929</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.09991558989132414</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0902056817574428</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.08115901658876561</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0728273421725967</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.06524206564460207</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.05841670845737922</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.05234933937553346</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04702493837692132</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.04241765366074691</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.03849292251245952</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03520943449192182</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.03252092226774012</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.03037777141729948</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.02872844567089131</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02752072843715109</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.02670278505471868</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02622405312758017</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02603597057911052</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02609255276450571</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02635083117548376</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.0267711670163653</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.0273174532866514</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02795721902925519</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2451,132 @@
       <c r="E15" t="n">
         <v>0.0589951949309305</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.0858773473902647</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1068923174585395</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1223089803881204</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1324968217505499</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1378966003404751</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1389957601080831</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1363077125883127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1303546980021652</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1216538055519685</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1107057834247382</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.09798629880807275</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.0839393422875493</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.06897250084829401</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.05345384955016651</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.03771023381878377</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.02202673302450361</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.006647112572213204</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.008224913004553989</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.02242376876980386</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.03581960822309286</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.04831553595405873</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.05984458316603843</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.0703665405242295</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.07986473843623497</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.08834285099516587</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.09582178661858419</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1023367160790773</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1079342772790846</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1126699858619581</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1166058716174669</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1198083526395029</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1223463523026778</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1242896582959316</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1257075181221492</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1266674615694308</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1272343376022233</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1274695508262829</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1274304810671812</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1271700685858663</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1267365469572331</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1261733055827329</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1255188641239216</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2594,132 @@
       <c r="E16" t="n">
         <v>0.4510121305505323</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.4896114395110341</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5208295334012727</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5449428516811093</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5623644637721628</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5736069479522131</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5792505212362815</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.579916209352328</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5762434863613624</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.5688718904631649</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5584261540952953</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5455044310384536</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5306692450160677</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5144408217731832</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.4972924983993359</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.4796479300834809</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4618798366226617</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.444310050191308</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.4272106433749158</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.4108059332723071</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3952751742275237</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3807557687902115</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3673468438762712</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3551130566699498</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3440885123209117</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3342806926438769</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3256743115257818</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3182350283243008</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3119129649951534</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3066459858685747</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.3023627108218969</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2989852430323247</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2964316015520194</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2946178566704348</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2934599724848327</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2928753663741578</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2927841992594432</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2931104137368332</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2937825394903082</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2947342869329462</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2959049508881896</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.297239646402452</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2986893985689211</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2737,132 @@
       <c r="E17" t="n">
         <v>0.6537752116330328</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.6710396313228483</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6829724115230684</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6899377032768989</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6923749968119125</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6907719519882858</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6856425213119461</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6775088682876811</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.666886781620204</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.65427412204756</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6401419090433664</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6249276914662664</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.6090308866595661</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5928098069501255</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5765801219914668</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.5606145302406875</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.5451434340783384</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.5303564317366322</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.5164044562432026</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.5034024077300038</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4914321411533028</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4805456869352902</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4707685972963485</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4621033259970814</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4545325636775206</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.448022464770603</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4425257148920734</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4379843995160286</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4343326455244321</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4314990168062566</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4294086534565726</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4279851513038904</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4271521845205695</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4268348790129466</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4269609482264504</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4274616060267388</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4282722735253821</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4293330982032307</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4305893045399408</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4319913956742628</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4334952254819154</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4350619599458153</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4366579458806694</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2880,132 @@
       <c r="E18" t="n">
         <v>0.01830567533035736</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.009258465330993268</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0006388011285902995</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.007744513806806255</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.0160171363530125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.02425384730238772</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.03248982027388875</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.04073038878572789</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04895917033354144</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.05714478725891527</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.06524635450909941</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.07321789965113977</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.08101186172974029</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.08858179978555082</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.09588442699379626</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1028810732042922</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1095386670329297</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1158303184074406</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1217355733653803</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.127240404708446</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1323369946420427</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1370233586326011</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.14130285330868</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1451836052683559</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1486778921173017</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1518015019491747</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1545730927995839</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1570135693639355</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1591454904700886</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1609925174342176</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1625789104904419</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1639290779528259</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.165067180618185</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1660167921219185</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1668006144867902</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1674402469252294</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1679560050384073</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1683667868699744</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1686899817900824</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1689414178789028</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1691353433227822</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1692844373067378</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1693998459623384</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3023,132 @@
       <c r="E19" t="n">
         <v>0.4198502662423362</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.4286383024181055</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4348706265070131</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4386729285337769</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4402184958767375</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4397137467031902</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4373864651966469</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4334758776193119</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4282244955678889</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4218714988166576</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.4146474732826751</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4067703343977144</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3984422851047514</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3898476730924912</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3811516249060272</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3724993453600727</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3640159798275771</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3558069450434703</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3479586415397898</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3405394680697589</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3336010655983189</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3271797257228285</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.321297905730434</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3159657998234562</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3111829232419018</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3069396729637254</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.3032188352571853</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.299997016502585</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2972459793237539</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2949338711287405</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2930263366334696</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2914875098306798</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2902808841842949</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2893700626035522</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2887193910170863</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2882944811655914</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.288062629606465</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2879931409200024</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2880575637691132</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2882298488369319</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2884864377910098</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2888062923386399</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2891708721822876</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3166,132 @@
       <c r="E20" t="n">
         <v>0.3892605011288374</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.4237441322346193</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4508015986305649</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4707982298291481</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4842189485282369</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4916332899567401</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4936650365838983</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4909669313312163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.4841997733122699</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4740154190964087</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.4610432173257403</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.4458794557804576</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4290794418264509</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4111518756716427</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.3925552084040181</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.3736957041149156</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.3549269485657023</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.3365505671501475</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.3188179335334918</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.3019326682345026</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2860537441491441</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2712990338719378</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.257749151679896</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2454514610551451</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2344241363869463</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2246601847256261</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2161313498836313</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2087918365560776</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2025818062840714</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1974306098882611</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1932597323942847</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1899854364425301</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1875210987486782</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1857792414162911</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1846732658773856</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1841189020451002</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1840353890062307</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1843464063665762</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1849807772953693</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1858729655015122</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1869633889153949</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1881985728425947</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1895311648909823</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3309,132 @@
       <c r="E21" t="n">
         <v>0.6075426198127509</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.6389253086940914</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6630510990128792</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6805552549919462</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6921081054022924</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6983944070132544</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7000964139843003</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6978802025937294</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6923848138834747</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.6842138581575229</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6739292639065574</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6620468896014424</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6490337478579369</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.6353066175375378</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.6212318406113947</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.6071261179838852</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5932581331007748</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5798508451687095</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5670843060922852</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5550988674138859</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5439986559584565</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5338552096383017</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5247111778819296</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5165840042240423</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5094695214858896</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5033454024337567</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.4981744206000532</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.4939074869008214</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4904864376507699</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4878465584785155</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4859188364431405</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.484631939350008</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4839139268912824</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4836937028497958</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4839022212745881</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4844734623433344</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4853451956570592</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4864595500539742</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4877634097692798</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4892086569910566</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4907522806498639</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.492356370707408</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4939880163482773</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3452,132 @@
       <c r="E22" t="n">
         <v>0.435355223931574</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.454746029169895</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4689138540625788</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.4782046852914168</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4830339317003699</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4838626193647358</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4811769889505917</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4754717770036015</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4672366399894585</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4569453517019848</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.445047415776757</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.431961776272086</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.4180723428247455</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4037250772756654</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3892264143831624</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3748428109667659</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3608012363797035</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3472904335599828</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3344627949099269</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3224367115445304</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.3112992684334602</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.3011091718247762</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2918998090931559</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2836823546975571</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2764488490947189</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2701751900469009</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.264823987606883</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2603472450132257</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2566888376773538</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.253786771327068</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2515752081643151</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2499862566081806</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2489515258638625</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2484034512416663</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2482763999173534</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2485075697555078</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2490376959942844</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2498115820974685</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2507784720015804</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2518922814024612</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2531117057141491</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2544002219650289</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2557260012391801</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3595,132 @@
       <c r="E23" t="n">
         <v>-0.01275918870059004</v>
       </c>
+      <c r="F23" t="n">
+        <v>0.003743812298307281</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01558752463289853</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.02312786755351656</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02676776960774421</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.02693821425368204</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.02408275106935936</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01864471024518172</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.01105692579043929</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.001733646650193238</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.008935640466438327</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.02059072975355097</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.0329037830564856</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.04558118836620102</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.05836437379206119</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.07102974365982088</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.08338788847437265</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.09528220707747118</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1065870668253051</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1172056155819742</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1270673475238197</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1361255130852368</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1443544518773442</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1517469161810568</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1583114417967925</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1640698127710133</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1690546569458657</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1733072004947434</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1768752016824192</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1798110770587346</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1821702271650695</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1840095635835506</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.185386234751901</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1863565443501351</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1869750531783166</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1872938532216172</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1873620009720524</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1872250959776123</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1869249899525216</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.186499611543004</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1859828919403173</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1854047769097592</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1847913114076487</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3738,132 @@
       <c r="E24" t="n">
         <v>4.434387226902118</v>
       </c>
+      <c r="F24" t="n">
+        <v>4.272075146480157</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.07462402809292</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.852708084816172</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.61555924830199</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.371053285289072</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.1258050833437</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.885268769437501</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.653839871122213</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.434957629260605</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2.231205976530029</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.044411999883583</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.875740919852383</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.725786785835872</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.594658225152226</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.48205870956394</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.387360924208511</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.309674943379859</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.247910035107372</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.200830029799246</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.167102294487672</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.145340450667607</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.134141058163104</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.132114558474148</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.137910828049103</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.150239735005699</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.167887122664927</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.189726660945814</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.214728013520061</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.241961766088795</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.270601550686784</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.29992378396599</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.329305415297384</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.358220054484476</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.386232820010603</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.412994218028199</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.438233330605231</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.461750559818739</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.483410142765163</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.503132621974341</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.520887426503406</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.536685691491168</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.550573418430766</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3881,132 @@
       <c r="E25" t="n">
         <v>0.4214382382963886</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.397133702984201</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3759419359204562</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3576908800576464</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3421798440517031</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3292009695670041</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3185418968953194</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3099895106817474</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3033328151379329</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2983654984396787</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2948881142350478</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.2927099069958869</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.2916502919068113</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.2915400069526727</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.2922219572048385</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.2935517740117656</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.2953981139013678</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.2976427236241446</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3001802988197707</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3029181642527947</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3057758034390844</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.308684264812418</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3115854704251942</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3144314516208643</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3171835342484516</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3198114939014584</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3222926994387749</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3246112607587483</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3267571945129583</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3287256192155927</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3305159890687356</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3321313738145875</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3335777900653079</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.334863587865158</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3359988947172173</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3369951179624595</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3378645052323916</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3386197617044712</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3392737220657947</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3398390744265471</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3403281329099201</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3407526552677725</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3411237016183051</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4024,132 @@
       <c r="E26" t="n">
         <v>0.3125900634175374</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2925246806132556</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2728824970445729</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2540079684176387</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2361570663286552</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2195205760471626</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2042320540893159</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1903755547860455</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1779925611506835</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1670884812050618</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1576386587906436</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1495938993372109</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1428855072599907</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1374298386292666</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1331323764180211</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1298913391837523</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1276008373802568</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1261535948350303</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1254432561947085</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1253663041950428</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1258236132906074</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1267216683443002</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1279734786344179</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1294992183457201</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1312266249756806</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1330911867510131</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.135036149281535</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.137012370362623</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1389780501636811</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1408983620968318</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1427450075299988</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1444957152656806</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1461337044150237</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1476471270103539</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1490285044625518</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1502741698183785</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1513837257350048</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1523595261857974</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1532061881579558</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1539301380089131</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1545391957198122</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.155042199022367</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1554486682780271</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4167,132 @@
       <c r="E27" t="n">
         <v>0.2509881478767427</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.2226498936731033</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1958953141302247</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1709528264095521</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1479670776126562</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1270290184531498</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1081806070314574</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.09142185487447829</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.07671703326024878</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06400062918800359</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0531829102770122</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04415508445688931</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0367940287044921</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.03096657314042622</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.02653333327062686</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.02335208996536025</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.02128072309785888</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.02017971078558697</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.01991421171470569</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02035575291610698</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.02138354944593387</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02288548560350725</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.02475878955429447</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.02691043453176651</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.02925730023312732</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03172612769621156</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03425329996354097</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.0367844793270093</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.03927413002341665</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.04168495302948496</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.043987257185695</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04615828834855491</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04818153570440165</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.05004603183529575</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05174566065797678</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.0532784849988068</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05464610335056493</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05585304330253184</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05690619725824334</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05781430436457987</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05858748107531436</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05923680146142878</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05977392725532631</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4310,132 @@
       <c r="E28" t="n">
         <v>1.003217256239114</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9730892063432562</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9445951434860479</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9181093390358182</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8938956734399611</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8721236334146411</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8528826786609847</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8361946816748123</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8220253363736835</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8102945619290214</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8008859216028614</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.7936550763074204</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.7884373040190786</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.7850541226976476</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.783319058921651</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.7830426077820114</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.7840364323544537</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.7861168535218046</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.7891076830490193</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.7928424545191525</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.7971661078830294</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.801936183847878</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.807023584067314</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.812312952087351</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8177027282890859</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8231049297235867</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8284447028571705</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8336596939462061</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8386992781524427</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8435236847002761</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8481030514648426</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8524164384511104</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8564508257537706</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.860200117837861</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8636641724013355</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8668478687133281</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8697602271959515</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8724135891549567</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8748228629792644</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8770048408282656</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8789775878095287</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8807599039134204</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8823708575057134</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4453,132 @@
       <c r="E29" t="n">
         <v>4.673402103613192</v>
       </c>
+      <c r="F29" t="n">
+        <v>4.301487897494836</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.951204836786006</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.624362939677773</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.322233552892068</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.045586138178602</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.794732855750413</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.569576975013678</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.369663179155016</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.1942283189843</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.042251495101437</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.91250255390896</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.803588255039214</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.713995515617288</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.642131271741613</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.586358623547081</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.545029048226907</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.516510574536494</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.4992119109847</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.491602606544855</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.492229396142503</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.499728942876631</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.512837235024329</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.530395929034464</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.551355951015501</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.574778680011804</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.599835038116004</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.625802806678395</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.652062475987059</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.678091919137972</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.70346016059316</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.727820487195708</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.750903125090234</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.772507680870872</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.792495520007393</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.810782230734342</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.827330297577862</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.842142085899062</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.855253217528541</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.866726397956647</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.876645737764965</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.885111595113253</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.8922359521584</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4596,132 @@
       <c r="E30" t="n">
         <v>0.8760388755997814</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8372910864452103</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8023375570728233</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.771160902059649</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7436815654788637</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7197714014073749</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6992648721149056</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6819671156059324</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6676613542435204</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6561155473547932</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6470883422355083</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6403343253065529</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6356085917663594</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6326706572576141</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.631287740949283</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6312374540619985</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6323099319064196</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6343094509136411</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6370555748616334</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6403838764461638</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6441462814398827</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6482110829060315</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6524626723110918</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6568010329848785</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.661141039309867</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6654116024050551</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6695547000307603</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6735243251038464</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6772853836929743</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6808125697624888</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6840892403387062</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.687106311256132</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6898611902620453</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6923567610618695</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6946004289095612</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6966032356119385</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6983790493399313</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6999438324323531</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7013149884417093</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7025107880039567</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7035498717074806</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7044508269792722</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7052318350835877</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4739,132 @@
       <c r="E31" t="n">
         <v>-0.3150436985697679</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3515311192130697</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3826175697208259</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4087031117222437</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4302075473099882</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4475583531133901</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4611811060840616</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4714933262011404</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4788992251314549</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4837854756112618</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4865178395750457</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4874385860685042</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4868646227692088</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4850862722462853</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.482366626569347</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4789414158082833</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4750193270759481</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4707827116843902</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4663886191183673</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4619700981993235</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4576377081998433</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4534811858279678</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4495712178844916</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4459612738838309</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4426894578575295</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4397803437503624</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.437246764097941</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4350915268851223</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4333090404953565</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4318868313699468</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4308069433289271</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.430047211413625</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4295824065689544</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4293852504832599</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4294273024516752</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.429679722242755</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4301139146527538</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4307020627577752</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4314175578549731</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4322353347556084</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.433132121491371</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.434086612656826</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4350795755700366</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4882,132 @@
       <c r="E32" t="n">
         <v>0.7010498530997119</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6786979689103226</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6574213569854619</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.637524995322215</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6192186120134184</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6026406743389078</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5878681435640913</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5749264163546188</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.563798119874649</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5544311055494531</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5467456209856175</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5406407051665866</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5359998459740819</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5326959424464759</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5305956136833673</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5295628958017647</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5294623679396775</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5301617482779382</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5315340013352412</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5334589982061493</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5358247717429603</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5385284087420948</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5414766208504787</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5445860350859805</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5477832435540122</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5510046501707413</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5541961500335923</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5573126745910653</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5603176330420204</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5631822775237196</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5658850167055203</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5684106994591518</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5707498873843008</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5728981321765829</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5748552711709144</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5766247519051506</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5782129942472505</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5796287965282488</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5808827902312744</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.581986946107123</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5829541331185234</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5837977303535927</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5845312909862599</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5025,132 @@
       <c r="E33" t="n">
         <v>0.8554333420832821</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8360397145595235</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8185391638998637</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8029817321692556</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.7893599793851249</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7776313824365085</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7677241824644137</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7595439939834986</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7529793515082026</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.747906651000775</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7441944537720375</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7417072037111226</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.740308396468883</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7398632426455969</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7402408660657206</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7413160773606542</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7429707619771139</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7450949206602364</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7475873994069477</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7503563447923783</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7533194193660793</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.756403810435772</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7595460639704595</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7626917735556356</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7657951523383862</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7688185137434577</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7717316844667543</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7745113709077873</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7771404978340315</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.779607535720839</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7819058309179647</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.784032950589207</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7859900522806073</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7877812860148644</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7894132349998759</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7908943993880899</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7922347260369519</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7934451859022527</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7945373995453752</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.7955233102494111</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.7964149034124545</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.797223970211446</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.7979619129974619</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5168,132 @@
       <c r="E34" t="n">
         <v>-0.7181992521681871</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7408092166935594</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7613178313981682</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7796801810751574</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7959181117750757</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8100903705351689</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8222867987246468</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8326208296685427</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8412233975190739</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8482375081710974</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8538135245743093</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8581050943954486</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8612656778154852</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.863445632447625</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8647898156535699</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.865435665515206</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8655117218404573</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8651365480132219</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8644180137062909</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8634528978327938</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8623267709018222</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8611141163420079</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.859878651433691</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8586738102304244</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8575433531757427</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.856522070914559</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.855636552925866</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8549059949290361</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8543430224150441</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8539545110188339</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8537423876930206</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8537043997004912</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8538348412681125</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.854125230306813</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8545649298899234</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8551417111883965</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8558422562933161</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8566526008241506</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8575585174410801</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8585458423696478</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8596007478260207</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.86070996382198</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.861860953251302</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5311,132 @@
       <c r="E35" t="n">
         <v>0.7966598080997344</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.7897317130325429</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7838296163229539</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.7790057134989302</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.7752700346924438</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.7725992359842578</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.770944207676579</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7702366701753803</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7703948098957043</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7713280426339042</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.772940990527973</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.775136757423406</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7778195826057475</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.7808969470121936</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7842811999065873</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.787890768115951</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.7916510044742331</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.7954947271308018</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.7993624968027555</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8032026747999749</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8069713006543132</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8106318243841265</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8141547247909853</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8175170417056671</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8207018467785426</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8236976742561561</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8264979302148026</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8291002959455898</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8315061386130327</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8337199399457738</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8357487515646951</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8376016836082846</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8392894315728421</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8408238447394265</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8422175382025023</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8434835493385484</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.844635038547214</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8456850332533808</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8466462134655709</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8475307366339617</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8483500991287237</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8491150313549597</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8498354233222696</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5454,132 @@
       <c r="E36" t="n">
         <v>0.7382415567672156</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7270422101040975</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7180609668540463</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7112249330327965</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7064172951476474</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7034892047535901</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.702269757732738</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7025744689674155</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7042123298633013</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7069916034332672</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7107244970084647</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7152308463885387</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7203409345898775</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7258975578115542</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7317574411450709</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7377920973465487</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.743888213670262</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7499476441952717</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7558870780742358</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7616374475250578</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7671431330497962</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7723610172348165</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.7772594325438563</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.7818170427790351</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.7860216923919001</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.7898692526227381</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.7933624885748354</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.7965099668259826</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.799325019065912</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8018247735373918</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8040292627515236</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8059606130366631</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8076423189509434</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8090986034214441</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8103538626464661</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8114321932871663</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8123569982560824</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8131506664576496</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8138343211244524</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8144276308977103</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8149486774968295</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.815413873686698</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8158379252595082</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5597,132 @@
       <c r="E37" t="n">
         <v>0.7084534165995349</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.6957358463909146</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6854600488402585</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.6775359440908456</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6718292015924824</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.6681733891209622</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6663802236271759</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.666248246876603</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6675700565861044</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.6701382452198849</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.6737501898603612</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.6782118284903127</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.6833405474185373</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.6889672939457383</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.6949380183424131</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7011145401255907</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7073749254503181</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7136134550032582</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.719740254887248</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7256806564319277</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7313743445284792</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7367743479007471</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7418459186788486</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7465653427613521</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7509187167864827</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7549007221372723</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7585134213327857</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7617650974504788</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7646691529135543</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7672430800787552</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7695075125790851</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7714853633071078</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7732010522546684</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.774679825135466</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7759471617856029</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7770282717395088</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7779476730886467</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7787288497218785</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7793939812927293</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7799637397337531</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7804571458157871</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7808914791046355</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.781282234674989</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5740,132 @@
       <c r="E38" t="n">
         <v>0.6846003321447598</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6714526443434657</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6601685473296898</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6506726922383219</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6428675272630213</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6366389710998561</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6318614785723676</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6284024194886071</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6261258207990433</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6248955164393286</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6245777560427647</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6250433235498043</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6261692152536799</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6278399243703047</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6299483765695915</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6323965583137133</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.635095877399193</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6379672927655493</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6409412483478365</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6439574434500774</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6469644697594623</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6499193426926577</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6527869522751526</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.655539456229062</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6581556354203928</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6606202293323091</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6629232668228754</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6650594051251518</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6670272878786274</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6688289309611548</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6704691430309702</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6719549859950236</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6732952790947022</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6745001489420643</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6755806266456464</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6765482921298924</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6774149648700372</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6781924395276265</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6788922643725389</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6795255599063059</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6801028747489</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6806340756064518</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6811282679896352</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5883,132 @@
       <c r="E39" t="n">
         <v>0.573248281077447</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5705594564181341</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5685573158065649</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5672550735230737</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5666384878502495</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.566672642143794</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5673075123337368</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5684827146327229</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5701314541047664</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5721837673727577</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.574569140671105</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.5772185823667048</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5800662227139446</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5830505070546315</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.5861150420479397</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.5892091482760752</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5922881668434232</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.5953135623915105</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.5982528602424696</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6010794510925427</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6037722927396801</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6063155346947029</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6086980881593939</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6109131607372668</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6129577723636475</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6148322662967617</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6165398265984049</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6180860113484831</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6194783088773107</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6207257225556596</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6218383881454541</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6228272263723389</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6237036322225361</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6244792014774816</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6251654941675469</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6257738339379972</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6263151417637125</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6267998020122733</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6272375585262296</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6276374381636538</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6280076990906098</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6283558010495015</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.628688394823143</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6026,132 @@
       <c r="E40" t="n">
         <v>0.7442411801835424</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.741125232507991</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7383861390099724</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7361538232029062</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7345093072660989</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7334941993873638</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7331185736964646</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7333678884340022</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7342089210411529</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.735594821172779</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7374693683988206</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7397705222379221</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7424333463533095</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.745392382320643</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7485835415478697</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7519455773953343</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7554211935374341</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7589578391926856</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7625082369842097</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7660306847918102</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7694891689285195</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7728533222414767</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7760982572435116</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7792043010933342</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.782156656141243</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.7849450068377447</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.7875630910648863</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.7900082513972554</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.7922809794341501</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.7943844641674042</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7963241533596389</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.7981073351022211</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.7997427450961622</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.801240203746695</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8026102858765867</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8038640247372272</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8050126510225454</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8060673667609745</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8070391532667062</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8079386117646011</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.8087758348542159</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8095603066377806</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.8103008290945939</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6169,132 @@
       <c r="E41" t="n">
         <v>0.5429087719608534</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5392571579489539</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5368662317565327</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5355940756889875</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5352995508379976</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5358450880562301</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5370989043199825</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5389367035250631</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.541242926242701</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5439116045556651</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5468468753336877</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5499632023782871</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5531853543420222</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5564481815332425</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.559696230852521</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.562883234278754</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.56597150257611</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5689312522492816</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5717398902516395</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5743812775709209</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5768449896067491</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5791255882419708</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5812219177216238</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5831364339096697</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5848745742070145</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5864441733889055</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5878549288517269</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5891179172380407</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5902451631191612</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5912492593381273</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5921430377327751</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5929392882485377</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5936505238942198</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5942887885731302</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5948655045199936</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.5953913558759578</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.5958762048261435</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.5963290366942662</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.5967579304256653</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5971700509832428</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.5975716603208143</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.5979681437762585</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.5983640489343373</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6312,132 @@
       <c r="E42" t="n">
         <v>0.6430703015665895</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.624499761328472</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6088479466203559</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5960243411275248</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5858880538111338</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5782604382636025</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5729362802122939</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5696933101709333</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5683002363241463</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5685234308591499</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.5701324116299686</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.5729042509974187</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.5766270342377448</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5811024798287026</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.5861478246923527</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.5915970693021645</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5973016704012331</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6031307626806683</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6089709848466494</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6147259798125717</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6203156331161711</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6256751079902896</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6307537297922043</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6355137667553898</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6399291483367497</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.643984156872951</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6476721229123388</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6509941495249333</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6539578861683253</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6565763683414918</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6588669353154418</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6608502346991638</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6625493194804659</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.663988840464213</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6651943346992411</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6661916085195559</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6670062122020538</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6676630019367872</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6681857837904144</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6685970335919406</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.668917686154914</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6691669869447401</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6693623991769064</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6455,132 @@
       <c r="E43" t="n">
         <v>0.684130496400897</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6745085312222218</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6665489174929921</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6601619266192723</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6552396726138665</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6516617254210474</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6492999094475396</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6480223657742064</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6476969364925341</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6481939336775064</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6493883563870931</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6511616174600061</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6534028386054306</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6560097683244026</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6588893731182318</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6619581484890672</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6651421925028683</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6683770811541371</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6716075813987076</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6747872344597875</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6778778388336444</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6808488593155686</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6836767853421659</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6863444590222576</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6888403904305478</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6911580750904354</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6932953260959749</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.695253631033393</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.6970375417689538</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.6986541032758697</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7001123259770208</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7014227045776388</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7025967850454375</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7036467802560106</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7045852338488134</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7054247310234701</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7061776543368549</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.7068559820278087</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7074711259875393</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7080338061987873</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.708553958274572</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7090406706265326</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7095021477722715</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6598,132 @@
       <c r="E44" t="n">
         <v>0.6608503443972342</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6564353458908168</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6532857821216188</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6513333185325413</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6504882662936473</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6506462775973151</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6516940236932117</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6535138973074109</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.655987850001682</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6590004578852465</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6624413096863613</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6662068054322752</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6702014473960645</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.6743386977566641</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.6785414703122138</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.6827423168475544</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.6868833624882194</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6909160385707721</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.6948006561763158</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.6985058584571544</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7020079851938762</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7052903786265075</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7083426554990774</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7111599664427082</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.713742260303834</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.716093567807261</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7182213160313958</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7201356825632642</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7218489958870148</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7233751865299828</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7247292917299986</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7259270148790384</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7269843397227904</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7279171982341465</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7287411902121566</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7294713519684234</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7301219709328035</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7307064426231605</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7312371661639587</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7317254743907048</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7321815945272688</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7326146354571592</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7330325977147325</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6741,132 @@
       <c r="E45" t="n">
         <v>0.6272404944487793</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6163901417602231</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6082480423307433</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6026963814314621</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5995642268093512</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5986430793116273</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.5996999031459567</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6024880355779552</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6067561516119804</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6122555103873253</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6187456910921537</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6259990118640772</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6338038073743811</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.6419667238017222</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.6503141742045241</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.658693083261619</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.6669710378527839</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.6750359487187901</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.6827953181564482</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.6901751990938673</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.6971189217604562</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7035856554064842</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7095488641027927</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.714994707579405</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7199204303897119</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7243327754734977</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7282464514936305</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7316826771824059</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7346678203830116</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.737232144521075</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.739408670886911</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7412321613341006</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7427382227777526</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7439625321726626</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.744940178429729</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.7457051159482314</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7462897230608526</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7467244576668061</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7470376016260126</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7472550850651669</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7474003815674521</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7474944652460412</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7475558209037008</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +6884,132 @@
       <c r="E46" t="n">
         <v>-1.271153192718361</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.27316188662972</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.274955341167857</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.276629496377165</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.278265295161808</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.279929834400678</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.281677190530049</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.283549530190086</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.285578281183499</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.287785328143718</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.290184187520021</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.292781135269498</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.295576270209388</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.298564503934465</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.301736473596209</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.30507937733867</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.308577734185735</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.31221407111217</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.315969540285818</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.319824469353531</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.323758847393732</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.327752748932008</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.331786698302952</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.335841976676661</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.339900874246788</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.34394689036812</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.347964884791118</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.351941183521386</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.355863643189743</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.359721678117779</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.363506254478973</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.367209856071625</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.370826426231919</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.374351290326373</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.377781063082118</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.381113544754448</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.384347609810141</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.387483091439034</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.390520664812133</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.393461731597418</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.396308307838193</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.399062916904638</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.401728488856257</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7027,132 @@
       <c r="E47" t="n">
         <v>-0.9884527591981481</v>
       </c>
+      <c r="F47" t="n">
+        <v>-0.9911864716610681</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.9935626295643718</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.9956678431254935</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.997578970399734</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.9993634492527984</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.00107931987204</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.002775589088595</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.004492732008142</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.006263297120765</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.008112567862789</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.010059250206983</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.012116164226349</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.014290924840936</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.01658660204936</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.019002354423367</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.021534031820674</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.024174744519526</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.026915396624802</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.02974518191153</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.03265204046082</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.035623074641434</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.038644923273531</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.041704093207639</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.044787248054439</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.047881454380957</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.050974386306256</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.05405449004283</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.057111110500312</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.060134582565118</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.063116290071682</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.066048695775863</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.068925345825227</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.071740852297901</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.074490857360377</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.077171982487789</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.079781766012519</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.082318592034195</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.084781613451526</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.087170671578296</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.089486214495072</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.09172921597567</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.093901096522159</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7170,132 @@
       <c r="E48" t="n">
         <v>-0.8826452417083037</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8845447594681722</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8856322074938401</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8860874116713332</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8860730738707354</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8857343931213121</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8851988523928161</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.8845765275162423</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.8839607179880613</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.8834288243198807</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.8830433961796222</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.8828532938691258</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.8828949174662449</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.8831934680125033</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.8837642128636638</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.8846137332551888</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.8857411366287488</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.8871392197029431</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.8887955709801902</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.8906936036254186</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.8928135116210485</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.8951331439189743</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.8976287930386326</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.9002758962220064</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.903049648843307</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9059255312580966</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.908879751632421</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9118896084868309</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9149337776990228</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9179925295168498</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.921047881734977</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9240836955868647</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9270857211102932</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9300415987765237</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.932940824052002</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9357746813111796</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9385361531644053</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9412198108304733</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9438216906923957</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9463391616484307</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9487707873269684</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.951116186689495</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9533758960137122</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7313,132 @@
       <c r="E49" t="n">
         <v>-0.6473818992045358</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6480506381834392</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6482382102729367</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6480718181918483</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6476653433020918</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6471190961327618</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6465198232879055</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6459410777136114</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.64544382360323</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6450772141376055</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6448794848409383</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.644878918413692</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6450948461849479</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.6455386591894605</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.646214808052149</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.6471217756656559</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6482530103272197</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6495978098297246</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6511421492185618</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6528694467285343</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6547612639513424</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6567979376541446</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6589591419313364</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6612243805506677</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6635734104538722</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6659865983802297</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.668445213482006</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.6709316595760644</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6734296513122743</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6759243390282439</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6784023873994102</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6808520131877926</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6832629874513115</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6856266075120885</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6879356438131607</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6901842665366107</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6923679565307927</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6944834047182548</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6965284037460573</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6985017352117713</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.7004030553649239</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.7022327817562899</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7039919828954353</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7456,132 @@
       <c r="E50" t="n">
         <v>-0.05198711797931052</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.05287577962634935</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05378359170139604</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.05471686460063183</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.05568088869324353</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.05667996042669087</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.05771715520864725</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.05879427811210483</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.05991187931240278</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06106932857503897</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.06226492857161173</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.06349605271558711</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.06475929547218512</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.0660506259699757</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.0673655381965019</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.06869919314016053</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.07004654988645667</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.07140248391965345</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.07276189177776751</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.07411978183103554</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.07547135137177512</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.07681205047846408</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.07813763329748791</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.07944419750751171</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.0807282128168469</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08198653940688908</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08321643728116473</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08441556751181112</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.08558198639326617</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.08671413351558963</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.08781081475648181</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.08887118116169408</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.08989470463906231</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.09088115133354149</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09183055348174154</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09274318046726959</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09361950971551851</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09446019798117257</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.09526605349616166</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09603800936226461</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09677709849286042</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.09748443033383551</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09816116952539847</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7599,132 @@
       <c r="E51" t="n">
         <v>-0.8730795642287069</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.874905319118231</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.875962515988419</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8763885501390591</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8763147641584664</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8758640370777857</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8751491269474416</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8742716203809818</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8733213774168549</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.872376368111999</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.871502815712871</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8707555764677359</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8701786993315939</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8698061195054377</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8696624482088382</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8697638276249859</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8701188249800695</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8707293436225989</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8715915321086626</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8726966749619596</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.874032051170066</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8755817487327452</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8773274257623433</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8792490107698459</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8813253368395555</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8835347063685621</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8858553848852595</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8882660241266794</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.8907460160170891</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8932757804297223</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.8958369906202219</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8984127409950846</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.9009876624307419</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9035479907053587</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9060815937673879</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9085779635667619</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.911028178042</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9134248386150841</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9157619882202501</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9180350145055194</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9202405424172637</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9223763199261378</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9244411001924928</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7742,132 @@
       <c r="E52" t="n">
         <v>-0.8730795642287069</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.874905319118231</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.875962515988419</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8763885501390591</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8763147641584664</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8758640370777857</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8751491269474416</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8742716203809818</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8733213774168549</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.872376368111999</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.871502815712871</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8707555764677359</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8701786993315939</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8698061195054377</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8696624482088382</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8697638276249859</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8701188249800695</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8707293436225989</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8715915321086626</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8726966749619596</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.874032051170066</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8755817487327452</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8773274257623433</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8792490107698459</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8813253368395555</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8835347063685621</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8858553848852595</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8882660241266794</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.8907460160170891</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8932757804297223</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.8958369906202219</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8984127409950846</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.9009876624307419</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9035479907053587</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9060815937673879</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9085779635667619</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.911028178042</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9134248386150841</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9157619882202501</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9180350145055194</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9202405424172637</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9223763199261378</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9244411001924928</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +7885,132 @@
       <c r="E53" t="n">
         <v>-1.117923146931448</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.124326344906665</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.129308120446202</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.133126805400136</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.136015388139783</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.138181871008593</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.139809718705547</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.141058784080207</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.142066502811999</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.142949282971415</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.143804017066981</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.144709663967835</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.145728860498257</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.146909532585427</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.148286483163093</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.149882939266194</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.15171204439707</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.153778284801879</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.156078840181869</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.158604850898366</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.161342595134366</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.164274570881044</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.16738047908289</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.170638105804731</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.174024102846147</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.177514667773325</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.181086125808972</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.184715417364471</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.18838049617201</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.192060643946999</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.195736708265859</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.199391270876352</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.203008753973838</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.206575472091928</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.210079637191441</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.213511324312529</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.216862404808445</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.2201264537331</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.223298637434706</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.226375586838735</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.22935526130708</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.232236807355485</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.235020415913942</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8028,132 @@
       <c r="E54" t="n">
         <v>-0.1858731017153726</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1846978963351481</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1835067926833008</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.182345068370899</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1812526848841015</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1802638645564191</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.179406873667982</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1787040529476184</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1781720237713228</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1778220277423265</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1776603601575589</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1776888648450802</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1779054636722609</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1783046993858607</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1788782750778175</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1796155774800094</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1805041745126564</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1815302801262756</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.18267918158428</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.183935626030984</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1852841645658339</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1867094531708866</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1881965107691358</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1897309354644953</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.191299080655236</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.1928881932371473</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1944865165302314</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.196083360879709</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.197669145103835</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1992354120931222</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.2007748219148047</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2022811257508078</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2037491239064236</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2051746109804675</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2065543110965074</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2078858058693755</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.209167457531729</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2103983293813084</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2115781054391772</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2127070109398644</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2137857350121112</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.214815356658733</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2157972749097428</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8171,132 @@
       <c r="E55" t="n">
         <v>-1.007403979829692</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.009640123080127</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.011661175486676</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.013537971272773</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.01533228510256</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.017097206450621</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.018877232942172</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.020708693670074</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.022620294154218</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.024633749668614</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.026764460803217</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.029022201828116</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.031411800867981</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.033933798278278</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.036585074830934</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.039359444896708</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.0422482120515</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.045240685796829</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.048324658697682</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.051486843480908</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.054713269716779</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.057989639771564</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.061301643855779</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.064635234237835</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.067976859046021</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.071313656519283</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.074633611052722</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.077925672876961</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.081179843674192</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.084387230837153</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.087540073398512</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.090631742884366</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.093656722472343</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.096610567864795</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.099489853228912</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.102292105420128</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.105015729506839</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.10765992836816</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.110224618856694</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.112710346718686</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.115118202156567</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.117449737613898</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.119706889068538</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8314,132 @@
       <c r="E56" t="n">
         <v>-0.8814537750259097</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.8803300911947169</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.8800147140919363</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.8804030649412373</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.8813996716265369</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.8829177372188812</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.8848783994476472</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.8872102205979382</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.8898487323149964</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8927360272635335</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.8958203719981827</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.8990558279966099</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9024018731064185</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.905823020726447</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9092884375345701</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9127715628155488</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9162497335634667</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9197038197783168</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9231178739995226</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9264787983630284</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9297760315392365</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9330012569648275</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.936148132930351</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9392120443893329</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9421898758374418</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.945079804267989</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9478811110206048</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9505940112715821</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9532194999328054</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9557592127989727</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9582153018826473</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9605903239824943</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9628871416274227</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9651088356197109</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9672586284599671</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9693398179760767</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.971355720499702</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9733096229415228</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9752047431148125</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9770441976507316</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9788309768418949</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.980567925746632</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9822577308872866</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8457,132 @@
       <c r="E57" t="n">
         <v>-0.913123445134518</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9048657572535792</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.8984551637158594</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.8938588821620205</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.8910037721730267</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.8897858273095655</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.8900783888870187</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.8917392786508375</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.8946168917183925</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.89855533439756</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9033986899314136</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9089944955829488</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.915196511874777</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9218668614757006</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9288776114637174</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.936111868747863</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-0.943464454352079</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-0.9508422180534561</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-0.9581640505166559</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-0.965360645586639</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-0.9723740608283711</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0.979157119790702</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.9856726948890124</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-0.9918929053160608</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-0.9977982600651818</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.003376772035978</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.008623065328066</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.013537494238237</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.018125289173919</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.02239574168507</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.026361438094841</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.03003754876907</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.033441177895924</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.036590776738096</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.039505621658569</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.042205356794548</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.044709600049488</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.047037610077138</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.049208011130212</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.051238572025179</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.053146035018889</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.054945990086403</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.056652789916564</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8600,132 @@
       <c r="E58" t="n">
         <v>-1.091618671236354</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.077102667074932</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.065367084707417</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.056269583539861</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.049637700842783</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.045277341684895</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.042980310310082</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.042530784462712</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.043710818653729</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.046304942311653</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.050103928318084</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.054907807485351</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.060528203733291</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.066790062688777</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.073532843904601</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.080611244016582</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.087895514976457</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.095271438000178</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.102640010052585</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.10991689557529</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.117031691813248</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.123927051589351</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.130557702809343</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.136889399445068</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.142897834326296</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.148567539838858</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.153890798630882</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.158866582704024</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.163499535832791</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.167799011120623</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.171778172666454</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.175453167774204</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.178842373881172</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.181965722398346</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.184844099934401</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.187498825902829</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.189951204275186</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.192222146229097</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.194331859633041</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.196299600695867</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.19814348267126</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.199880336229369</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.20152561597196</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8743,132 @@
       <c r="E59" t="n">
         <v>-0.8270663907481896</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.818010936488349</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8100374118528887</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8031680562427098</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.7974023532874472</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.7927202378633336</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.7890853423496843</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.7864480458263835</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.7847483178040709</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.7839183216666329</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.7838847649892992</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.7845709910234931</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.7858988127779006</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.7877900962237241</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.7901681030859922</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.7929586065872297</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.7960907955721671</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.7994979837952951</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8031181419173726</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8068942700411504</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.810774628519068</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8147128443733013</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.818667910054833</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8226040904928869</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8264907534956556</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.830302137592588</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8340170703830778</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8376186493947185</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8410938963704001</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8444333948088009</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8476309194876909</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8506830656140011</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8535888841793832</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8563495290656078</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8589679204514351</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8614484281318254</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8637965774809806</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8660187799807898</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8681220895022218</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8701139848734591</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.872002178697606</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8737944518949616</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8754985130387515</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +8886,132 @@
       <c r="E60" t="n">
         <v>-0.4637185097920051</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4499966863113201</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.438361718837586</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4287290870053935</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4209908761942243</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4150210352040706</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4106807224254042</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4078228617653126</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4062961216020372</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4059483232246799</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4066293213054898</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4081933934235222</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4105011770509263</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4134211921158651</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4168309871445904</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4206179467674047</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4246797980246491</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4289248523117656</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4332720188733757</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4376506244505783</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4420000720034849</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.446269369409647</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4504165567413094</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.454408058226546</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4582179823803895</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4618273911264335</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4652235560819205</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4683992176032027</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4713518597248956</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4740830118052033</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4765975855325765</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4789032539682039</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4810098775020598</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.482928979990001</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4846732769149517</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4862562561731128</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4876918110207622</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4889939238212668</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4901763984965005</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4912526390017945</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4922354706975861</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4931370011719267</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4939685168632267</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9029,132 @@
       <c r="E61" t="n">
         <v>0.3750251730572753</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3769043874138879</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3786323965316768</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3801926845997643</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3815746922903404</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3827731816098457</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3837875311125234</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3846210761492956</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3852804717724876</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3857750832577135</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.386116408111199</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.386317535088514</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.3863926456401175</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3863565625112661</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.386224349043964</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3860109613024787</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3857309536443035</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3853982369237116</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3850258872417153</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3846260021038419</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3842096000435484</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3837865592170936</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.383365590159817</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3829542377865623</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3825589077863896</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3821849127674006</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3818365338159725</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3815170935134971</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3812290368745438</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3809740171097493</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.38075298355594</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3805662695408427</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3804136783500205</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3802945658326151</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3802079185160805</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3801524263965912</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3801265498310946</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3801285801801855</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3801566940400784</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3802090010594466</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3802835854656013</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3803785415273032</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3804920032613588</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9172,132 @@
       <c r="E62" t="n">
         <v>-1.178580059472046</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.165829941909692</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.155768897481067</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.148293377304706</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.143258619796818</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.140489349065664</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.139788991990856</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.140947652725613</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.143748897017702</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.147975443305613</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.15341385316333</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.159858315128735</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.167113613632611</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.174997371687029</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.183341652322932</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.191993999771487</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.200817997097422</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.2096934124119</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.218516000917232</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.227197024896774</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.235662548425564</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.243852558129734</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.251719955866216</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.259229463827439</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.266356477386307</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.273085896055145</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.279410958290067</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.285332101562405</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.290855865158993</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.295993849568364</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.300761743056692</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.3051784231263</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.309265137967982</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.313044770751972</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.316541187635738</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.319778668684606</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.32278141948742</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.325573160087913</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.328176786926359</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.330614102777606</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.332905609162578</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.335070355381352</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.33712583814749</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9315,132 @@
       <c r="E63" t="n">
         <v>-0.692337263539775</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6721894208528988</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6538519040663346</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6373465289137412</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6226674702390458</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6097836968376206</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.5986426355631522</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.5891735338125963</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5812907745970167</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5748970360989701</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5698862613575412</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5661464040465568</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5635619283240095</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5620160485890899</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5613927021276112</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5615782537353523</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.562462936697357</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5639420389907964</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5659168472903215</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5682953643056989</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5709928172043303</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5739319764147395</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5770433050340115</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5802649594444492</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5835426616582858</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5868294634296034</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5900854213715011</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5932772012601579</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.596377628455574</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5993651999745712</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.6022235722621475</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.6049410371637606</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6075099970398002</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6099264484158814</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.612189482055764</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6143008059007582</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6162642959593037</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6180855789681464</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6197716494934767</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6213305231040925</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.622770926333437</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6241020233542324</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6253331786167168</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9458,132 @@
       <c r="E64" t="n">
         <v>-0.8873160080425978</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8794038513607993</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8717913616685935</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8647292049410622</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.858404447216198</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8529487303582599</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8484463639012825</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8449416409246749</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.842445540341011</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8409417926467745</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8403923282808845</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8407421302312672</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8419235189058971</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.843859900298642</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8464690104261337</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8496656901164175</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8533642248324912</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.8574802844470577</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.8619324978117814</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.8666436966064757</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.8715418623199808</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.8765608093152593</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.8816406357834365</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.88672797301983</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.8917760618896886</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.8967446836260329</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.9015999702510877</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9063141179699641</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9108650248823961</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9152358723251046</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9194146671211229</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9233937599983544</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9271693534708462</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9307410105737257</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9341111740253571</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9372847036745691</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9402684384907298</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9430707878812707</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9457013557832417</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9481705997778437</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9504895264219106</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9526694230773254</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9547216257450535</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9601,132 @@
       <c r="E65" t="n">
         <v>-0.07957680909531076</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06690799077083609</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.05619069091437734</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.04730441730004303</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.0401184291293788</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.03449486153277617</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.0302919385441847</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.02736668135965237</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.02557727276918794</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.02478507744661412</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.02485634044232417</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.0256635814382876</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.02708670349457752</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.02901383560939242</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.03134192949264062</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.03397713210422431</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.03683495656284888</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.03984027480282053</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.042927155723934</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.04603857248290245</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.04912600200987885</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05214893883958652</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05507434399090626</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05787604799353728</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.06053412533099235</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.0630342556265229</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06536708491380146</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06752759836654088</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06951451395750818</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.07132970471267605</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.07297765554545815</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.0744649591154572</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07579985376547188</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07699180535385332</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07805113371675883</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07898868356335007</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07981553882102788</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.08054277880005878</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.08118127402867509</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.08174151921109743</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.08223350047138908</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.08266659385453651</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.08304949195138764</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9744,132 @@
       <c r="E66" t="n">
         <v>-0.7550016475611068</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7415279660281676</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7312764025198769</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7239786640419311</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7193533801046659</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7171131274274473</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7169709827610125</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7186458420863239</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7218667548480311</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7263763493298858</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7319334475475916</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7383149586848679</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.7453171362221922</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.7527562791553861</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.7604689533651885</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.7683118049544557</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.7761610330928638</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.7839115854496708</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.7914761345753548</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.7987838886042025</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8057792844440148</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8124206062881374</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8186785669403178</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8245348841971837</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8299808794874558</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8350161212032525</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8396471307367995</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8438861651935569</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8477500871094317</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8512593282591261</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8544369517973678</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8573078145094347</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8598978288418717</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8622333226156349</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8643404928678443</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8662449491001905</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8679713403071536</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8695430594911666</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8709820189205597</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8723084891258385</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8735409945372501</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8746962587188671</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8757891923294505</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +9886,132 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7162481893505527</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.6999302694548067</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.6881342022886926</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.6803537685374628</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.6760958311140925</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.6748864189307332</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.676275566952267</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6798410444921399</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.6851910504514129</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.6919660013904358</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.699839523354312</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7085187518758844</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7177440369975655</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7272881439065715</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.736955034191653</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.746578307490065</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7560193780267321</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7651654550100563</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.7739273899287471</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.7822374475002389</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.7900470504506402</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.7973245416071865</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8040530001237999</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8102281421986326</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.815856330515927</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.820952710957874</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8255394899561952</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8296443612273393</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8332990865724866</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8365382319164498</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8393980567860038</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8419155529564267</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8441276259880075</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.846070411792148</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.847778719169152</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8492855884070177</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8506219554839349</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8518164111396231</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8528950440366641</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8538813573887073</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.854796248755779</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8556580431675389</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8564825703047919</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_11.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_11.xlsx
@@ -443,530 +443,530 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.320979248953557</v>
+        <v>-0.221225574440636</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.323716723852815</v>
+        <v>-0.2987113970417993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2143436614000808</v>
+        <v>-0.4529329355182927</v>
       </c>
       <c r="B3" t="n">
-        <v>0.198459336637776</v>
+        <v>-0.3882324487736706</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1537652663524683</v>
+        <v>-0.5289049001564117</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1308398275189065</v>
+        <v>-0.468725384260669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0575026392805066</v>
+        <v>-0.1867077086173133</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08598760563481117</v>
+        <v>-0.2176596936741573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1396628773717534</v>
+        <v>-0.1425258833026161</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1257264185200478</v>
+        <v>-0.1165560554551552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.446103926602071</v>
+        <v>-0.2486432360548048</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.462794068214327</v>
+        <v>-0.2813035583867065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3031979267968119</v>
+        <v>-0.4821868847663077</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2722784098748927</v>
+        <v>-0.4097452871424743</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.4083607549642143</v>
+        <v>-0.6444530289452352</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.419160127918516</v>
+        <v>-0.5068947078914234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.309977447926819</v>
+        <v>-0.4216969412043984</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3437353167829754</v>
+        <v>-0.2167961031478336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2096874175128783</v>
+        <v>-0.2451629587420543</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2495262058236078</v>
+        <v>-0.2682052297001176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1077715546222127</v>
+        <v>-0.1677887243925625</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1090023623403518</v>
+        <v>-0.1592762765478757</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.000355055107599366</v>
+        <v>-0.1024247910263559</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.01412646471737876</v>
+        <v>-0.09228825415552418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.002855013403342571</v>
+        <v>-0.2323144740892847</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01271392789801482</v>
+        <v>-0.1642208691978131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1316013561189634</v>
+        <v>-0.07433902824470077</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0570807994248989</v>
+        <v>-0.01562184063545382</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.201621912133458</v>
+        <v>-0.28644912950437</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2909665680821449</v>
+        <v>-0.1320365665804203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5423436228104332</v>
+        <v>-0.06798365622505377</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5685316785691956</v>
+        <v>0.06552326622987384</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.07315178509541692</v>
+        <v>0.01490435119564006</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0514454229502002</v>
+        <v>0.04479460899560108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.386715335439153</v>
+        <v>0.03643196019040799</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3784449178779835</v>
+        <v>0.08336493776933186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.1811050692756799</v>
+        <v>-0.1778476170974412</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2404340588128443</v>
+        <v>-0.1059617328113978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3703355057468388</v>
+        <v>-0.008985210202750815</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4641284581422794</v>
+        <v>0.06165242795151016</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3126920452067942</v>
+        <v>-0.07236841886345335</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3442710520518817</v>
+        <v>0.07275244515004033</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.1038864267973275</v>
+        <v>0.06300908772083888</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.09234164219002516</v>
+        <v>0.07093169640599929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.453803991435108</v>
+        <v>0.9000937714275231</v>
       </c>
       <c r="B24" t="n">
-        <v>4.577738315524726</v>
+        <v>0.7371844791573458</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.5876139453631384</v>
+        <v>0.1350499628996302</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5201919331051155</v>
+        <v>0.107947683635579</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.3896680206323899</v>
+        <v>0.1547467607237886</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3840934113596692</v>
+        <v>0.1387981892610986</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4493561849481168</v>
+        <v>0.1425981655686474</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3506188273330846</v>
+        <v>0.142316270878525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.101569599730075</v>
+        <v>0.5019926804822898</v>
       </c>
       <c r="B28" t="n">
-        <v>1.107158495914431</v>
+        <v>0.332523306805975</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.305399400005101</v>
+        <v>0.7394975758911319</v>
       </c>
       <c r="B29" t="n">
-        <v>5.891534824325058</v>
+        <v>0.6120116303542912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.086484111942742</v>
+        <v>0.2216424931757903</v>
       </c>
       <c r="B30" t="n">
-        <v>1.02554562774442</v>
+        <v>0.1815843056231921</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.04596266962933854</v>
+        <v>0.1115071214070912</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1632159372585917</v>
+        <v>0.08800195546024515</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8757027905704118</v>
+        <v>0.2284796900786265</v>
       </c>
       <c r="B32" t="n">
-        <v>0.779564758101126</v>
+        <v>0.2157938649752954</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9785819433047789</v>
+        <v>0.1272358686940622</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9300366235590389</v>
+        <v>0.1329301324753304</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.5295851090977531</v>
+        <v>0.1075420983023397</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.6329906594375985</v>
+        <v>0.0773005947336623</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8420182744530541</v>
+        <v>0.3758252025780184</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8222461609779662</v>
+        <v>0.2752186466059716</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8020293360917573</v>
+        <v>0.2226193700633499</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7849608595243773</v>
+        <v>0.1034232283275243</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7904737148019464</v>
+        <v>-0.03122971852243707</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7610204137432285</v>
+        <v>-0.03240632934089572</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7832513543860885</v>
+        <v>0.3454078674352573</v>
       </c>
       <c r="B38" t="n">
-        <v>0.735657008090314</v>
+        <v>0.2855184078394947</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.5849492900421073</v>
+        <v>-0.08797232348903913</v>
       </c>
       <c r="B39" t="n">
-        <v>0.584655617669402</v>
+        <v>-0.139589759800075</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7549193585309645</v>
+        <v>0.09899929987938683</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7535855833296246</v>
+        <v>0.1370135359703478</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.5823079700845144</v>
+        <v>-0.09493465746259849</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5628614257754467</v>
+        <v>-0.1673046903933172</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7509149846034363</v>
+        <v>0.2664362332282849</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7162239923506889</v>
+        <v>0.2667067070515314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7498150135291279</v>
+        <v>0.04451977215206121</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7235113542228019</v>
+        <v>0.08201273402688293</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6815804832488409</v>
+        <v>0.007223945691946815</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6818361315274433</v>
+        <v>-0.05641184709164448</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6779300713150774</v>
+        <v>-0.1433166457959914</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6758304549915243</v>
+        <v>-0.1034158618095164</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1.251248864644726</v>
+        <v>-0.1662375939550853</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.262668264875522</v>
+        <v>-0.1543678915519102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-0.967001884512309</v>
+        <v>-0.1647295940943758</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.9772038869607644</v>
+        <v>-0.151560487986453</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-0.8580176344820992</v>
+        <v>-0.2179105188753415</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.8701089387968857</v>
+        <v>-0.1926865224680253</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-0.6289971336463758</v>
+        <v>-0.226217399964751</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.6410403872334991</v>
+        <v>-0.1948180542766703</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-0.05096672366018621</v>
+        <v>-0.09145167631939459</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.04929204634115188</v>
+        <v>-0.1006449971721333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.8480553192316176</v>
+        <v>-0.2365181307787485</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.8617558046222666</v>
+        <v>-0.2181183661709926</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-0.8480553192316176</v>
+        <v>-0.2365181307787485</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.8617558046222666</v>
+        <v>-0.2181183661709926</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-1.065722767152864</v>
+        <v>-0.1899107247446276</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.087251285867312</v>
+        <v>-0.1719949621505628</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-0.1891174149309518</v>
+        <v>-0.2177731319697336</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1888127969028661</v>
+        <v>-0.1883582628345376</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-0.9897380905975447</v>
+        <v>-0.1532242862750103</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.9985492423653456</v>
+        <v>-0.1339516217372279</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-0.9016627886439221</v>
+        <v>-0.1105641561091033</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.8909248614359153</v>
+        <v>-0.1029230541526095</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.9860300738025907</v>
+        <v>-0.1820161885290238</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.9483704188240569</v>
+        <v>-0.1396509536707337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-1.201068001714629</v>
+        <v>-0.1244150338271487</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.152693352750958</v>
+        <v>-0.1657163046327254</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-0.8907455777886119</v>
+        <v>-0.2070706678073113</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.860144294385646</v>
+        <v>-0.2158717456268029</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.5489051317318591</v>
+        <v>-0.2521507862176968</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.5178204024029087</v>
+        <v>-0.2434085372046686</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3636111718592236</v>
+        <v>-0.2628710625733858</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3687250643742834</v>
+        <v>-0.2138441324529243</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1.284317684999349</v>
+        <v>-0.1492751247279001</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.232938856462481</v>
+        <v>-0.09111869749647811</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.7988858422843718</v>
+        <v>-0.4817226268554734</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.76348863415763</v>
+        <v>-0.4405003228457873</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9089174194676304</v>
+        <v>-0.2850620294950607</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9092640817244033</v>
+        <v>-0.2660528363680922</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.1676704399680572</v>
+        <v>-0.2456735080486877</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.1304048256125618</v>
+        <v>-0.2288769295655513</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.8688241560039135</v>
+        <v>-0.08101856810283901</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.8170160309513503</v>
+        <v>-0.06736570766589559</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-0.8870577052056342</v>
+        <v>0.02665950280576842</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7972691155758459</v>
+        <v>0.005499169068905142</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_variables_matrix_11.xlsx
+++ b/PCAstatic/PCAstatic_predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-0.221225574440636</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2987113970417993</v>
+        <v>-20.88679520994477</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1320.680804116566</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-81158.51298005205</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4421368.596492152</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-226108992.3699353</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-14320670046.03485</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-806913214331.5911</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-43001122853461.69</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1977808522599278</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-6.666404256248195e+16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-5.304044384361882e+17</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.524610146377891e+20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.924796405144804e+22</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.808194769842185e+24</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.475908833796917e+26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.100948028427646e+28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7.873105377394636e+29</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.606092242924251e+31</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.4529329355182927</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3882324487736706</v>
+        <v>-45.34166810043764</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-4163.753955159877</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-365289.7617124097</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-26883362.00739844</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2008899905.194203</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-191081786899.8334</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-15760013782738.89</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-1221326072807410</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-7.780067348641352e+16</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-2.355403600777618e+18</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.062215847166023e+20</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.423402704701557e+22</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.098341954540254e+25</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.441751455925405e+27</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.741339225465671e+29</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.969410724096452e+31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.154408794343508e+33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.35441691356945e+35</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.5289049001564117</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.468725384260669</v>
+        <v>-38.15551774020626</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3203.507794905464</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-252504.7059471499</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-18178702.75753899</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1473032198.792091</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-132133365702.34</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-10689667718684.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-842430005985197.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-6.270237566468738e+16</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-4.249691404037281e+18</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.652883988967072e+20</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.627513467840365e+22</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-9.748752220404662e+23</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-4.91770570474405e+25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.838312380404804e+27</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-3.767836026350579e+28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.105109159568211e+30</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.569689379881759e+32</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.1867077086173133</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2176596936741573</v>
+        <v>-18.64195741040114</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1754.581928025274</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-148555.4982500584</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-11412280.91477436</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1040727847.447579</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-108494802022.6811</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-9500196141408.865</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-738992107618010.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-4.941216107382891e+16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2.627895739983741e+18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-7.866927009074492e+19</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.920128367227073e+21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.111257631642728e+24</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.609321011829956e+26</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.880866138276177e+28</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.944541508942055e+30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.901755399585955e+32</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.851978644144296e+34</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>-0.1425258833026161</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1165560554551552</v>
+        <v>-5.472254524021989</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-334.102971516096</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-5299.341957340323</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2074766.419595088</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13534678.74169752</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-20880964381.39151</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-3094296814915.058</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-280313738587290.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1.563309187940723e+16</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-4.329371315659622e+16</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.642928556783016e+20</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.24045206107807e+22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.52603230214961e+24</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.554052217508386e+26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.268823426283296e+28</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.629987075440729e+30</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.789503527178669e+32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.945260338682627e+34</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.2486432360548048</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2813035583867065</v>
+        <v>-15.18845940992473</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-858.0911622342508</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-48407.55634087059</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2513380.434725901</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-149237826.9914138</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-10726219400.53672</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-627634803782.1167</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-31935799469616.02</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1388667944385692</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-4.580482773859556e+16</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-6.082537413128212e+17</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.04915992330606e+19</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.16034796570355e+21</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7.450825551612982e+23</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.771946697700583e+25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4.046573162252511e+27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.70913585581548e+29</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.804496120186523e+31</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>-0.4821868847663077</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4097452871424743</v>
+        <v>-33.51027140483639</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2192.700683261207</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-140246.4134055562</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-7962766.044451604</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-489654660.7842543</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-34030093476.02321</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2169280266209.754</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-139510618174851.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-8311597845510864</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-4.209578791429601e+17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.684627042369492e+19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-4.49644033234003e+20</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.156404111316694e+22</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.150006221255556e+24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.365621805004633e+26</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.437639360076191e+28</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.032037721555676e+30</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.549273868670614e+32</v>
       </c>
     </row>
     <row r="9">
@@ -502,7 +910,58 @@
         <v>-0.6444530289452352</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5068947078914234</v>
+        <v>-25.89713451218346</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1560.347400638671</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-93420.94145779805</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5012116.171698877</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-276384527.7700112</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-17521142903.59206</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-980641769984.6702</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-52124356027163.22</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2450677205547878</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-8.767173461129058e+16</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1.210143351241198e+18</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.514288423319566e+20</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.198454751131555e+22</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.166440914235096e+24</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.805521270317198e+26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.357916823557343e+28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9.737380058958069e+29</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.952035400307517e+31</v>
       </c>
     </row>
     <row r="10">
@@ -510,7 +969,58 @@
         <v>-0.4216969412043984</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.2167961031478336</v>
+        <v>-49.04444144311415</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6074.437302605065</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-655370.247379619</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-54389989.27571546</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4433337749.123305</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-481979378199.1938</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-48072486314359.87</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4789986495080444</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-4.51960007143118e+17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-3.806421361853395e+19</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2.752188490124629e+21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1.592729241786745e+23</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-3.299876012925163e+24</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.164118179662472e+27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.627154814222288e+29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.734284464114918e+31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.528054472052828e+33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.424660400123769e+35</v>
       </c>
     </row>
     <row r="11">
@@ -518,7 +1028,58 @@
         <v>-0.2451629587420543</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.2682052297001176</v>
+        <v>-17.85236159240184</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1174.306223878877</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-71320.74907854633</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-3903539.285910916</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-242224397.1975993</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-17580870326.86938</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1079877475705.579</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-59594341616165.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-2887671428696810</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-1.131741617334654e+17</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-2.898108536183473e+18</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.698905757442094e+19</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.080128644411071e+22</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.285416026800555e+24</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.154344973023229e+26</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.026035337527516e+27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6.647961636353522e+29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4.856674382404941e+31</v>
       </c>
     </row>
     <row r="12">
@@ -526,7 +1087,58 @@
         <v>-0.1677887243925625</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.1592762765478757</v>
+        <v>-20.39263629357221</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1387.480543546984</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-83829.2713124124</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4292896.590538865</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-243545432.9117284</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-17031720365.9413</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1015454136837.147</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-54514270257885.44</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2445425239169898</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-7.29425653838627e+16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.018949093718671e+17</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.445939222389118e+20</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.803008395221355e+22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.429877057091006e+24</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.752404285759443e+26</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.034002649658314e+28</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.444091076547322e+30</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.0231735072941e+32</v>
       </c>
     </row>
     <row r="13">
@@ -534,7 +1146,58 @@
         <v>-0.1024247910263559</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.09228825415552418</v>
+        <v>-2.794081251599285</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-526.1066507904384</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-51859.60108361184</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5196646.716539692</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-519270216.9811457</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-46027539649.45577</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3344776810630.394</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-218128165401820.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.256676702316328e+16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-5.746239559638524e+17</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-1.50424846090957e+19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5.219403380920235e+20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.33782188803106e+23</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.687524961224237e+25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.733220130225505e+27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.587041632104257e+29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.381189547455759e+31</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.194886740675287e+33</v>
       </c>
     </row>
     <row r="14">
@@ -542,7 +1205,58 @@
         <v>-0.2323144740892847</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1642208691978131</v>
+        <v>-13.68346291326653</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-895.8293788486045</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-54335.52561773843</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3060066.045493137</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-171557580.9276705</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-9820914710.557343</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-465887051868.0178</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-20556274252195.41</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-778515605773393.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1.354872474086892e+16</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.344589525598457e+18</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.06437627116703e+20</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.962334906186688e+22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.596215128410399e+24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.166394396725699e+26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>7.865487741423063e+27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5.092137013959538e+29</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.29097538112102e+31</v>
       </c>
     </row>
     <row r="15">
@@ -550,7 +1264,58 @@
         <v>-0.07433902824470077</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.01562184063545382</v>
+        <v>-5.452942135568648</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-349.9828607534744</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-18957.05664838171</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-991636.0331369252</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-49626340.47448973</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2413636915.947017</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-94954775889.44125</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-3307506782550.036</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-90348559126976.86</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-445854691568803</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.725926539034636e+17</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.677706238710468e+19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.175249278038973e+21</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.320107333724338e+22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.180034363725132e+24</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.230869808712622e+26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.150452051643958e+28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.925884032373196e+29</v>
       </c>
     </row>
     <row r="16">
@@ -558,7 +1323,58 @@
         <v>-0.28644912950437</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1320365665804203</v>
+        <v>-10.48591063146636</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-529.7844136835421</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-25384.78992689719</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1143306.023317152</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-47943781.06167349</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1857070813.403318</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-64819248251.33147</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2327508905461.915</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-75124408744169.45</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-1615957925807167</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.655083527960174e+16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.407907367901626e+18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.463583806157544e+20</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.641107006824827e+22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.093132534934324e+24</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.0839596049723e+26</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.319548901509011e+27</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.602003232412255e+29</v>
       </c>
     </row>
     <row r="17">
@@ -566,7 +1382,58 @@
         <v>-0.06798365622505377</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06552326622987384</v>
+        <v>-2.645848554330144</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-167.5970698293221</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-7356.916613706667</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-239327.9605378614</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-2230831.644501554</v>
+      </c>
+      <c r="G17" t="n">
+        <v>201418510.1391143</v>
+      </c>
+      <c r="H17" t="n">
+        <v>28100905819.29427</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1969960730382.025</v>
+      </c>
+      <c r="J17" t="n">
+        <v>115205736449608.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6388288779675703</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.384043702666598e+17</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.716503952960038e+19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.40972813451633e+20</v>
+      </c>
+      <c r="O17" t="n">
+        <v>4.059026638795737e+22</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.945895741575388e+24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.295744899868528e+25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4.44192668550135e+27</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.126358529048653e+29</v>
       </c>
     </row>
     <row r="18">
@@ -574,7 +1441,58 @@
         <v>0.01490435119564006</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04479460899560108</v>
+        <v>0.4076191036852619</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-210.5835770420403</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-19311.28818045112</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1286970.623677736</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-52676243.00219582</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2437283232.041955</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-45878258914.70181</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2861250035740.447</v>
+      </c>
+      <c r="J18" t="n">
+        <v>476669137207038.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.634183094225762e+16</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.602781549236691e+18</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.417802798134699e+20</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.504182537339506e+22</v>
+      </c>
+      <c r="O18" t="n">
+        <v>9.209207569829606e+23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.619522955448962e+25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.426969777240937e+27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.094159715751722e+29</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.282460709637954e+31</v>
       </c>
     </row>
     <row r="19">
@@ -582,7 +1500,58 @@
         <v>0.03643196019040799</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08336493776933186</v>
+        <v>6.131127808470727</v>
+      </c>
+      <c r="C19" t="n">
+        <v>102.5854591974926</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-880.2108081135907</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-383002.6468607939</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-43515792.25181702</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-3832910910.169129</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-229397361493.7695</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-10692872741383.79</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-381727556772665.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-7300149884682022</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.544222731401983e+17</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5.358079286678893e+19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.434848346013943e+21</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3.178744006416822e+23</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.076017812225714e+25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.261247657367834e+27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7.387230674169726e+28</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.321053102861537e+30</v>
       </c>
     </row>
     <row r="20">
@@ -590,7 +1559,58 @@
         <v>-0.1778476170974412</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1059617328113978</v>
+        <v>-8.960795890210768</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-390.6656784635541</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-17155.59653670665</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-777712.6648849563</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-32539085.39041677</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1226327996.941159</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-37833179718.82788</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1140388210075.577</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-32249080708172.67</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-515284994293314.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.995422872468513e+16</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.707720408222946e+18</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.925835337059826e+20</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.132895172836379e+22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.9094519503137e+23</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.821499753471777e+25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.287866224010372e+27</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.865802084088472e+28</v>
       </c>
     </row>
     <row r="21">
@@ -598,7 +1618,58 @@
         <v>-0.008985210202750815</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06165242795151016</v>
+        <v>-12.00584439475844</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-845.2158350190903</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-50438.30085974362</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-2685135.312141785</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-151218054.6381236</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-7626200639.213616</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-364827720856.2007</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-19037754676757.34</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-962678600233254.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-4.267512714470333e+16</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-1.287365025517752e+18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.171164520874001e+19</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.886021456318683e+21</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8.495353040015984e+23</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6.808910830780076e+25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4.629730989999645e+27</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.903792017625447e+29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.809549641572225e+31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +1677,58 @@
         <v>-0.07236841886345335</v>
       </c>
       <c r="B22" t="n">
-        <v>0.07275244515004033</v>
+        <v>-1.524856975306246</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-143.5693017131672</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-8347.062706925764</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-461779.5311261386</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-23288217.72843648</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-772801071.0002272</v>
+      </c>
+      <c r="H22" t="n">
+        <v>40675009815.68582</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7250266249711.277</v>
+      </c>
+      <c r="J22" t="n">
+        <v>738128353066865.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.69548405917083e+16</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.76978061380999e+18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4.717507939035237e+20</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.593188285491923e+22</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.595736352821941e+24</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.791795265430483e+26</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.18726955332641e+28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7.70005021871397e+29</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4.993747430654013e+31</v>
       </c>
     </row>
     <row r="23">
@@ -614,7 +1736,58 @@
         <v>0.06300908772083888</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07093169640599929</v>
+        <v>-3.397194965023036</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-362.5280354420821</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-24592.60271077682</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1682164.472444617</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-125062980.6953446</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-7885244752.61878</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-354397287410.2936</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-12171939396183.71</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-130210387234312.8</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.775764297702303e+16</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.33689890630427e+18</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.028767750826335e+20</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.07137460750186e+22</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3.08379644964607e+24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.212926562128293e+26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.517374671472421e+28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.016733068497087e+30</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6.811386240166086e+31</v>
       </c>
     </row>
     <row r="24">
@@ -622,7 +1795,58 @@
         <v>0.9000937714275231</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7371844791573458</v>
+        <v>1.647521713998861</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8.007541825853856</v>
+      </c>
+      <c r="D24" t="n">
+        <v>42.55883528083854</v>
+      </c>
+      <c r="E24" t="n">
+        <v>211.7259448115857</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1084.442865468004</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4572.977443666348</v>
+      </c>
+      <c r="H24" t="n">
+        <v>14248.41970046487</v>
+      </c>
+      <c r="I24" t="n">
+        <v>38035.41223059132</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-55389.14223268814</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-2765058.305834044</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-31218742.44523266</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-251403023.8472342</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-1926207335.796383</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-15438790067.15815</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-127116152963.3176</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-1061044437818.647</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-8802471534473.672</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-71799464640410.84</v>
       </c>
     </row>
     <row r="25">
@@ -630,7 +1854,58 @@
         <v>0.1350499628996302</v>
       </c>
       <c r="B25" t="n">
-        <v>0.107947683635579</v>
+        <v>2.940283957210996</v>
+      </c>
+      <c r="C25" t="n">
+        <v>44.21046969420762</v>
+      </c>
+      <c r="D25" t="n">
+        <v>791.4874919857689</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13868.2118986508</v>
+      </c>
+      <c r="F25" t="n">
+        <v>337918.0380796701</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7976967.991653866</v>
+      </c>
+      <c r="H25" t="n">
+        <v>179614818.8476508</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3958549933.662118</v>
+      </c>
+      <c r="J25" t="n">
+        <v>85379193552.05307</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1810716936254.466</v>
+      </c>
+      <c r="L25" t="n">
+        <v>37975273101473.31</v>
+      </c>
+      <c r="M25" t="n">
+        <v>793597601255653</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.657924309001287e+16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.503370357060219e+17</v>
+      </c>
+      <c r="P25" t="n">
+        <v>7.664912219767917e+18</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.752958422127815e+20</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.120435996048055e+21</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.71406334656163e+22</v>
       </c>
     </row>
     <row r="26">
@@ -638,7 +1913,58 @@
         <v>0.1547467607237886</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1387981892610986</v>
+        <v>2.735113577606007</v>
+      </c>
+      <c r="C26" t="n">
+        <v>36.83773783570319</v>
+      </c>
+      <c r="D26" t="n">
+        <v>583.5638613050846</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8362.730855006201</v>
+      </c>
+      <c r="F26" t="n">
+        <v>128339.3674065746</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2123825.661394363</v>
+      </c>
+      <c r="H26" t="n">
+        <v>36973437.33029574</v>
+      </c>
+      <c r="I26" t="n">
+        <v>697203325.7781634</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13528382117.14276</v>
+      </c>
+      <c r="K26" t="n">
+        <v>260370640570.3144</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4919676504007.229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>90599327533017.47</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1638943801125962</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.979665222669222e+16</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5.531961436668901e+17</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.052605073629244e+19</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.033416846981772e+20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.935256975113602e+21</v>
       </c>
     </row>
     <row r="27">
@@ -646,7 +1972,58 @@
         <v>0.1425981655686474</v>
       </c>
       <c r="B27" t="n">
-        <v>0.142316270878525</v>
+        <v>2.294292918888279</v>
+      </c>
+      <c r="C27" t="n">
+        <v>29.30313745447664</v>
+      </c>
+      <c r="D27" t="n">
+        <v>421.5567161096958</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5453.127320858837</v>
+      </c>
+      <c r="F27" t="n">
+        <v>76580.85630968882</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1164836.348393461</v>
+      </c>
+      <c r="H27" t="n">
+        <v>17986371.15278115</v>
+      </c>
+      <c r="I27" t="n">
+        <v>287930747.6727677</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4628222135.12829</v>
+      </c>
+      <c r="K27" t="n">
+        <v>74072868048.45673</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1184345231865.412</v>
+      </c>
+      <c r="M27" t="n">
+        <v>18955371066229.92</v>
+      </c>
+      <c r="N27" t="n">
+        <v>303474026996088.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4891882625793312</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.011426678554734e+16</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.335094482536703e+18</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.247935641431618e+19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.789189475674043e+20</v>
       </c>
     </row>
     <row r="28">
@@ -654,7 +2031,58 @@
         <v>0.5019926804822898</v>
       </c>
       <c r="B28" t="n">
-        <v>0.332523306805975</v>
+        <v>3.314774312699701</v>
+      </c>
+      <c r="C28" t="n">
+        <v>47.61804879032658</v>
+      </c>
+      <c r="D28" t="n">
+        <v>741.4360321219548</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10533.42966176723</v>
+      </c>
+      <c r="F28" t="n">
+        <v>172432.1810168118</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2801535.050828981</v>
+      </c>
+      <c r="H28" t="n">
+        <v>43635373.33773652</v>
+      </c>
+      <c r="I28" t="n">
+        <v>682991724.3229856</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9789634720.43976</v>
+      </c>
+      <c r="K28" t="n">
+        <v>126186021389.5412</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1473937798639.476</v>
+      </c>
+      <c r="M28" t="n">
+        <v>16730298133815.33</v>
+      </c>
+      <c r="N28" t="n">
+        <v>178902019591423.8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1346555456470545</v>
+      </c>
+      <c r="P28" t="n">
+        <v>374443566387632</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-2.044894316691285e+17</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-5.036124064409736e+18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1.116021147909529e+20</v>
       </c>
     </row>
     <row r="29">
@@ -662,7 +2090,58 @@
         <v>0.7394975758911319</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6120116303542912</v>
+        <v>1.952713515110407</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.9206793102534</v>
+      </c>
+      <c r="D29" t="n">
+        <v>61.18333058846875</v>
+      </c>
+      <c r="E29" t="n">
+        <v>306.4251627517584</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1760.639599131352</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9407.529716019531</v>
+      </c>
+      <c r="H29" t="n">
+        <v>52711.03837193866</v>
+      </c>
+      <c r="I29" t="n">
+        <v>338569.8690197783</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2064636.863858697</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11321471.79298811</v>
+      </c>
+      <c r="L29" t="n">
+        <v>52709408.80292967</v>
+      </c>
+      <c r="M29" t="n">
+        <v>165587492.9256685</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-384130108.1813364</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-13362144099.04305</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-156478105279.9896</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-1424922911618.655</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-11789610189116.75</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-95283248248157.98</v>
       </c>
     </row>
     <row r="30">
@@ -670,7 +2149,58 @@
         <v>0.2216424931757903</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1815843056231921</v>
+        <v>2.619701035633908</v>
+      </c>
+      <c r="C30" t="n">
+        <v>30.04650454635976</v>
+      </c>
+      <c r="D30" t="n">
+        <v>371.6235299462392</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3886.003802513155</v>
+      </c>
+      <c r="F30" t="n">
+        <v>51398.10077667038</v>
+      </c>
+      <c r="G30" t="n">
+        <v>735207.5703408966</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10581304.2460282</v>
+      </c>
+      <c r="I30" t="n">
+        <v>163729704.41547</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2545242088.745279</v>
+      </c>
+      <c r="K30" t="n">
+        <v>38207712106.13023</v>
+      </c>
+      <c r="L30" t="n">
+        <v>546755722864.0616</v>
+      </c>
+      <c r="M30" t="n">
+        <v>7382837551243.773</v>
+      </c>
+      <c r="N30" t="n">
+        <v>94418227374415.62</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1174472609385631</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.51569657249627e+16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.17910394468134e+17</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3.433360983132846e+18</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.47318964613045e+19</v>
       </c>
     </row>
     <row r="31">
@@ -678,7 +2208,58 @@
         <v>0.1115071214070912</v>
       </c>
       <c r="B31" t="n">
-        <v>0.08800195546024515</v>
+        <v>2.088231279164768</v>
+      </c>
+      <c r="C31" t="n">
+        <v>24.10997091110548</v>
+      </c>
+      <c r="D31" t="n">
+        <v>316.5372108530144</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3899.649785087251</v>
+      </c>
+      <c r="F31" t="n">
+        <v>57448.37395432625</v>
+      </c>
+      <c r="G31" t="n">
+        <v>879087.0400353764</v>
+      </c>
+      <c r="H31" t="n">
+        <v>14473039.94804647</v>
+      </c>
+      <c r="I31" t="n">
+        <v>248618377.5757722</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4289482680.856018</v>
+      </c>
+      <c r="K31" t="n">
+        <v>73227778639.03825</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1220001898427.835</v>
+      </c>
+      <c r="M31" t="n">
+        <v>19739978366579.9</v>
+      </c>
+      <c r="N31" t="n">
+        <v>314977527629241.3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5048662926333259</v>
+      </c>
+      <c r="P31" t="n">
+        <v>8.184080955384194e+16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.342355932209745e+18</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.216265531690745e+19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.660067250439937e+20</v>
       </c>
     </row>
     <row r="32">
@@ -686,7 +2267,58 @@
         <v>0.2284796900786265</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2157938649752954</v>
+        <v>3.726476638080312</v>
+      </c>
+      <c r="C32" t="n">
+        <v>64.4572113878347</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1270.155178376455</v>
+      </c>
+      <c r="E32" t="n">
+        <v>22675.35058460473</v>
+      </c>
+      <c r="F32" t="n">
+        <v>390104.3150912562</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6474845.530330643</v>
+      </c>
+      <c r="H32" t="n">
+        <v>109074358.3817943</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2208000074.310282</v>
+      </c>
+      <c r="J32" t="n">
+        <v>47318609425.96792</v>
+      </c>
+      <c r="K32" t="n">
+        <v>995139862492.5317</v>
+      </c>
+      <c r="L32" t="n">
+        <v>20435726401508.43</v>
+      </c>
+      <c r="M32" t="n">
+        <v>407900274074025.2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7921240620636705</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.538111886113867e+17</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.134314646916594e+18</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>6.90340674004095e+19</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.60327979110834e+21</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.745638170769116e+22</v>
       </c>
     </row>
     <row r="33">
@@ -694,7 +2326,58 @@
         <v>0.1272358686940622</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1329301324753304</v>
+        <v>3.344296923190771</v>
+      </c>
+      <c r="C33" t="n">
+        <v>64.99983476193381</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1336.634663317226</v>
+      </c>
+      <c r="E33" t="n">
+        <v>22882.06504232263</v>
+      </c>
+      <c r="F33" t="n">
+        <v>408988.0576518246</v>
+      </c>
+      <c r="G33" t="n">
+        <v>7584939.289130588</v>
+      </c>
+      <c r="H33" t="n">
+        <v>139276243.0470429</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3043822353.75766</v>
+      </c>
+      <c r="J33" t="n">
+        <v>68548075265.35934</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1445201246412.697</v>
+      </c>
+      <c r="L33" t="n">
+        <v>27261024378346.92</v>
+      </c>
+      <c r="M33" t="n">
+        <v>415243446931941.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3316312370796498</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-7.600008060465616e+16</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-4.710430334476768e+18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-1.529695705833287e+20</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-4.157118794814268e+21</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-1.112092613938466e+23</v>
       </c>
     </row>
     <row r="34">
@@ -702,7 +2385,58 @@
         <v>0.1075420983023397</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0773005947336623</v>
+        <v>3.073350953645139</v>
+      </c>
+      <c r="C34" t="n">
+        <v>53.61489391603435</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1010.266362098924</v>
+      </c>
+      <c r="E34" t="n">
+        <v>16572.71547933351</v>
+      </c>
+      <c r="F34" t="n">
+        <v>304729.1479486765</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5825561.523197374</v>
+      </c>
+      <c r="H34" t="n">
+        <v>135182226.6066376</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3503031124.279559</v>
+      </c>
+      <c r="J34" t="n">
+        <v>91662719211.24452</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2345987601383.915</v>
+      </c>
+      <c r="L34" t="n">
+        <v>57649662847540.97</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1352808563611635</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.094804106209125e+16</v>
+      </c>
+      <c r="O34" t="n">
+        <v>7.070904517535489e+17</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.622804336293147e+19</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.741469452253402e+20</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8.648046553120457e+21</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.998465576388802e+23</v>
       </c>
     </row>
     <row r="35">
@@ -710,7 +2444,58 @@
         <v>0.3758252025780184</v>
       </c>
       <c r="B35" t="n">
-        <v>0.2752186466059716</v>
+        <v>58.83716812793253</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9671.469935186684</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1593887.482170436</v>
+      </c>
+      <c r="E35" t="n">
+        <v>261058551.4661078</v>
+      </c>
+      <c r="F35" t="n">
+        <v>41825618067.97978</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6237618186566.741</v>
+      </c>
+      <c r="H35" t="n">
+        <v>779428443445166.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.696606522701946e+16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.230727938027863e+19</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.355100029503024e+21</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.189047848641904e+23</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6.259935524984563e+24</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-6.401212199798603e+26</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-3.383532830270117e+29</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-8.186789051544236e+31</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-1.521729937779002e+34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-2.518521150348982e+36</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-4.12338989103629e+38</v>
       </c>
     </row>
     <row r="36">
@@ -718,7 +2503,58 @@
         <v>0.2226193700633499</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1034232283275243</v>
+        <v>25.35342859405641</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4176.796363402998</v>
+      </c>
+      <c r="D36" t="n">
+        <v>654270.2506055972</v>
+      </c>
+      <c r="E36" t="n">
+        <v>95015593.56331562</v>
+      </c>
+      <c r="F36" t="n">
+        <v>13002003008.01259</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1803073178715.728</v>
+      </c>
+      <c r="H36" t="n">
+        <v>210474623474829.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.360477724861054e+16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.562164327846526e+18</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.323222997976622e+20</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.307728419566326e+22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-8.59349926033149e+23</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-4.778420068148924e+26</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-1.128252026823193e+29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-2.05197926298514e+31</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-3.199040564142412e+33</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-4.616433487156468e+35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-6.617466695940394e+37</v>
       </c>
     </row>
     <row r="37">
@@ -726,7 +2562,58 @@
         <v>-0.03122971852243707</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.03240632934089572</v>
+        <v>3.88886723270497</v>
+      </c>
+      <c r="C37" t="n">
+        <v>677.1424843120037</v>
+      </c>
+      <c r="D37" t="n">
+        <v>80437.958152459</v>
+      </c>
+      <c r="E37" t="n">
+        <v>11791194.17583807</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1808046002.184806</v>
+      </c>
+      <c r="G37" t="n">
+        <v>257469078383.7577</v>
+      </c>
+      <c r="H37" t="n">
+        <v>28688178123918.24</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2666120867471099</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.997707262109045e+17</v>
+      </c>
+      <c r="K37" t="n">
+        <v>9.240303332895015e+18</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-5.187473581474153e+20</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-2.220010586649624e+23</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-4.179235370235899e+25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-6.409694058556918e+27</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-8.613180112622872e+29</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-1.048473142676343e+32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-1.210785064698116e+34</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-1.392592897106862e+36</v>
       </c>
     </row>
     <row r="38">
@@ -734,7 +2621,58 @@
         <v>0.3454078674352573</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2855184078394947</v>
+        <v>56.39095268674366</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9951.963241628104</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1679870.7604304</v>
+      </c>
+      <c r="E38" t="n">
+        <v>267859031.7225213</v>
+      </c>
+      <c r="F38" t="n">
+        <v>38971995409.37114</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5137282476102.812</v>
+      </c>
+      <c r="H38" t="n">
+        <v>698480566839411.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.058499355170443e+17</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.596307462402565e+19</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.327985370280011e+21</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.248089837454736e+23</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.261164742262111e+25</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.116909197798991e+27</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.646800756056546e+29</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.283361707196857e+31</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8.427448630670336e+33</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.387945242071004e+36</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.342302914454206e+38</v>
       </c>
     </row>
     <row r="39">
@@ -742,7 +2680,58 @@
         <v>-0.08797232348903913</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.139589759800075</v>
+        <v>-27.91605724224491</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-6270.30530110423</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-1406578.110504628</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-330320135.3461525</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-83849996560.13118</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-24058501646672.71</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-7023496934779393</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-2.045626830194535e+18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-5.781780331947389e+20</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-1.569041600036974e+23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-4.119592085944178e+25</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-1.057452052224663e+28</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.681617161640145e+30</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-6.737429627250717e+32</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-1.677769447861929e+35</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-4.153617875501123e+37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-1.026154795578637e+40</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-2.536378441444351e+42</v>
       </c>
     </row>
     <row r="40">
@@ -750,7 +2739,58 @@
         <v>0.09899929987938683</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1370135359703478</v>
+        <v>20.48167384356984</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3484.720596076115</v>
+      </c>
+      <c r="D40" t="n">
+        <v>561229.2639629521</v>
+      </c>
+      <c r="E40" t="n">
+        <v>77895588.38776185</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7570638243.439494</v>
+      </c>
+      <c r="G40" t="n">
+        <v>897137871199.2861</v>
+      </c>
+      <c r="H40" t="n">
+        <v>89282772941723.7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8364849375740099</v>
+      </c>
+      <c r="J40" t="n">
+        <v>6.590395725693594e+17</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.075841260944493e+19</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-5.64917841650192e+21</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-1.632541021118112e+24</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-3.080490307862365e+26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-5.125233380291617e+28</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-7.769016231813112e+30</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-1.090937956659517e+33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-1.469440358839957e+35</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-1.9730751751945e+37</v>
       </c>
     </row>
     <row r="41">
@@ -758,7 +2798,58 @@
         <v>-0.09493465746259849</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1673046903933172</v>
+        <v>-13.26404209453682</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1385.196953861281</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-80800.28431897101</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11981613.30385669</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7004555205.935401</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2182403878557.428</v>
+      </c>
+      <c r="H41" t="n">
+        <v>478554349231783.1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.032473200752675e+16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.150023374740163e+19</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1.544011622992942e+21</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.904972699410081e+23</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2.079340568917542e+25</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.724117478513143e+27</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.077994776037349e+28</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-2.336730775382776e+31</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-5.596162808338051e+33</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-8.817562443213374e+35</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-1.320682532304083e+38</v>
       </c>
     </row>
     <row r="42">
@@ -766,7 +2857,58 @@
         <v>0.2664362332282849</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2667067070515314</v>
+        <v>34.17299235872151</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3528.201172043887</v>
+      </c>
+      <c r="D42" t="n">
+        <v>388287.3983062245</v>
+      </c>
+      <c r="E42" t="n">
+        <v>46717598.96054612</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5142612290.129823</v>
+      </c>
+      <c r="G42" t="n">
+        <v>485849003260.9342</v>
+      </c>
+      <c r="H42" t="n">
+        <v>44275227675822.97</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4533212835422871</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.902139056095368e+17</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.104219537438888e+19</v>
+      </c>
+      <c r="L42" t="n">
+        <v>4.899846823306145e+21</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4.030745521604021e+23</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.482573604517966e+25</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5.86785895948387e+26</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-1.078540858248844e+29</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-1.974490232469655e+31</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-2.13015268896088e+33</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-2.157482388471437e+35</v>
       </c>
     </row>
     <row r="43">
@@ -774,7 +2916,58 @@
         <v>0.04451977215206121</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08201273402688293</v>
+        <v>14.90240629546289</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4629.89182632959</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1275686.428992391</v>
+      </c>
+      <c r="E43" t="n">
+        <v>324126133.5025456</v>
+      </c>
+      <c r="F43" t="n">
+        <v>77464939025.64302</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17435660507778.74</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3615274797362744</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.146015120547828e+17</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.364535227541303e+20</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.492783848699815e+22</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.234896813735521e+24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6.367813847942621e+26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.732557108241477e+28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.932607397100692e+30</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-1.550100907406761e+32</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-1.422615560434875e+35</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-2.907215521556847e+37</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-5.46277624304815e+39</v>
       </c>
     </row>
     <row r="44">
@@ -782,7 +2975,58 @@
         <v>0.007223945691946815</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.05641184709164448</v>
+        <v>-2.550601037712321</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-670.8491171216567</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-150524.2480016476</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-29503054.34419968</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-4716791507.829707</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-677580323647.2991</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-193339352908299.1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-4.630500430954238e+16</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1.063015261073872e+19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-2.639263705260907e+21</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-7.242408039923267e+23</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-1.968643245571384e+26</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-4.756127195114917e+28</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-1.05728396069685e+31</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-2.219232342015612e+33</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-4.421958941268403e+35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-8.568052433006584e+37</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-1.657562572018422e+40</v>
       </c>
     </row>
     <row r="45">
@@ -790,7 +3034,58 @@
         <v>-0.1433166457959914</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1034158618095164</v>
+        <v>-5.786524792838231</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-525.5711360341888</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-43490.59255332041</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-231835.8437891746</v>
+      </c>
+      <c r="F45" t="n">
+        <v>320799149.3945937</v>
+      </c>
+      <c r="G45" t="n">
+        <v>43920618897.6421</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1335618147376.428</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-363116240368709.2</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-9.006241228877792e+16</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1.595823811392947e+19</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-2.530222370096002e+21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-3.751815502733752e+23</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-5.187242732382168e+25</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-6.739548185134239e+27</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-8.242310207966504e+29</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-9.546527296243262e+31</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-1.072594846875594e+34</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-1.202901179207798e+36</v>
       </c>
     </row>
     <row r="46">
@@ -798,7 +3093,58 @@
         <v>-0.1662375939550853</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1543678915519102</v>
+        <v>-4.257888795423588</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-167.5138386404348</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-5741.401425779974</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-180027.3224587539</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-5593206.872782513</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-198001017.8204181</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-5464557232.38507</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-125047065147.3754</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1823131404613.103</v>
+      </c>
+      <c r="K46" t="n">
+        <v>23300687938721.75</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3225299085495219</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.628604203779986e+17</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6.65399370474489e+18</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.572793886191541e+20</v>
+      </c>
+      <c r="P46" t="n">
+        <v>9.584414622965198e+21</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.463276642526547e+23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.232129399851489e+25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4.372546543927509e+26</v>
       </c>
     </row>
     <row r="47">
@@ -806,7 +3152,58 @@
         <v>-0.1647295940943758</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.151560487986453</v>
+        <v>-5.372204825485841</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-253.2980215118346</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-10584.98841540676</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-406016.5321164338</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-15440645.28747731</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-665138535.8296623</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-22878864688.2669</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-673421135422.6239</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-14757111325212.58</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-64453774247727</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.573635842981414e+16</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.118408504125952e+18</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.742045290123339e+19</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.734008783158617e+21</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.241167305079984e+23</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5.426815458416493e+24</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.328475132072651e+26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9.96038284387038e+27</v>
       </c>
     </row>
     <row r="48">
@@ -814,7 +3211,58 @@
         <v>-0.2179105188753415</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1926865224680253</v>
+        <v>-6.200025819366573</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-272.8186913384374</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-10789.3337087763</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-395390.0145776122</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-14559771.0767507</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-600325220.9562609</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-20314180679.50037</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-604771135137.4089</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-14235456299800.96</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-158783117395130.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7312069528301656</v>
+      </c>
+      <c r="M48" t="n">
+        <v>6.355718637735244e+17</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.354105307688305e+19</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.600924177749657e+21</v>
+      </c>
+      <c r="P48" t="n">
+        <v>7.205586372013113e+22</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3.102242874620027e+24</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.306478294296042e+26</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.480517955618124e+27</v>
       </c>
     </row>
     <row r="49">
@@ -822,7 +3270,58 @@
         <v>-0.226217399964751</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1948180542766703</v>
+        <v>-8.055241077499492</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-427.9150439647412</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-20396.76083786756</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-903183.0709547109</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-40438502.23592515</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-2005035874.504997</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-83436851804.14902</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-3114107520896.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-96602014343555.59</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1986880831670699</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.150824293152755e+16</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.802401874559148e+18</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.757908727519575e+20</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.684004991850712e+22</v>
+      </c>
+      <c r="P49" t="n">
+        <v>9.42080069941422e+23</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4.958731450771362e+25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.534700438026986e+27</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.28901714623115e+29</v>
       </c>
     </row>
     <row r="50">
@@ -830,7 +3329,58 @@
         <v>-0.09145167631939459</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1006449971721333</v>
+        <v>-10.02597444363905</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1013.198839600771</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-86564.39769285194</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-7007182.539685175</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-564843814.1438513</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-47644454202.46594</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-3401343613545.011</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-219818956895752.2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.256953897207417e+16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-6.012304194371589e+17</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-2.180290686822838e+19</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-4.577076854214925e+20</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.264001944127834e+22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>5.419057207455361e+24</v>
+      </c>
+      <c r="P50" t="n">
+        <v>6.33038373410103e+26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5.922073411333865e+28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5.092476309720038e+30</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.326348883024147e+32</v>
       </c>
     </row>
     <row r="51">
@@ -838,7 +3388,58 @@
         <v>-0.2365181307787485</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.2181183661709926</v>
+        <v>-7.945539862771637</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-380.6048728693415</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-16912.39905411823</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-699758.2574322568</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-28840378.93386497</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1333568425.387006</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-51600958098.05426</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1785256609422.108</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-50098889945977.3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-809244942854525</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.918092604818771e+16</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.488230267295417e+18</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.573978828104198e+20</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8.782848072206552e+21</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4.571916709887681e+23</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.262413551093797e+25</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.091858240058495e+27</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5.243125450393461e+28</v>
       </c>
     </row>
     <row r="52">
@@ -846,7 +3447,58 @@
         <v>-0.2365181307787485</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.2181183661709926</v>
+        <v>-7.945539862771637</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-380.6048728693415</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-16912.39905411823</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-699758.2574322568</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-28840378.93386497</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1333568425.387006</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-51600958098.05426</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1785256609422.108</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-50098889945977.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-809244942854525</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.918092604818771e+16</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.488230267295417e+18</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.573978828104198e+20</v>
+      </c>
+      <c r="O52" t="n">
+        <v>8.782848072206552e+21</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4.571916709887681e+23</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.262413551093797e+25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.091858240058495e+27</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5.243125450393461e+28</v>
       </c>
     </row>
     <row r="53">
@@ -854,7 +3506,58 @@
         <v>-0.1899107247446276</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1719949621505628</v>
+        <v>-3.981214648636255</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-150.9613393595384</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-5152.478272765991</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-162191.1302768546</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-4933483.489566037</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-172398452.3377979</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-4706554489.999075</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-107720643144.6036</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1685860903449.971</v>
+      </c>
+      <c r="K53" t="n">
+        <v>8570055015340.75</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2064324746005823</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.05533284282331e+17</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.224399495049757e+18</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.593818760090784e+20</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5.791757990642813e+21</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.041328582287044e+23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7.084340492652027e+24</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.452168499821465e+26</v>
       </c>
     </row>
     <row r="54">
@@ -862,7 +3565,58 @@
         <v>-0.2177731319697336</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1883582628345376</v>
+        <v>-12.7261288032407</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-960.8574309831952</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-64951.24326331024</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4065507.277713974</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-251689902.2017886</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-17084907636.52986</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-1012047571654.187</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-55661357096042</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-2715651988795172</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-1.110393266913924e+17</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-3.435443404108404e+18</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-5.873887267192596e+19</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.954323009202578e+21</v>
+      </c>
+      <c r="O54" t="n">
+        <v>5.596474915427289e+23</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5.509025936990308e+25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4.388702751214257e+27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.224204624106658e+29</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.337480234588038e+31</v>
       </c>
     </row>
     <row r="55">
@@ -870,7 +3624,58 @@
         <v>-0.1532242862750103</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1339516217372279</v>
+        <v>-4.239634360544185</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-191.6922690261482</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-7388.58009349181</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-264866.9962994346</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-9937962.214362606</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-414823369.9464741</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-13535302993.46672</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-370942630862.3694</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-7231326424618.01</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1878694796695.625</v>
+      </c>
+      <c r="L55" t="n">
+        <v>9098115728742424</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5.706703286842328e+17</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.701155009200579e+19</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.194610448582492e+21</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5.062737163507907e+22</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.073502580367902e+24</v>
+      </c>
+      <c r="R55" t="n">
+        <v>8.347752150778925e+25</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3.351488473000535e+27</v>
       </c>
     </row>
     <row r="56">
@@ -878,7 +3683,58 @@
         <v>-0.1105641561091033</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1029230541526095</v>
+        <v>-6.399956713037659</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-366.8349429352788</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-17718.38737124481</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-790002.4036074781</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-35828757.90574125</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1744895279.674281</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-70625252986.32816</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-2522575131374.883</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-71642354050883.41</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-1049717212665272</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.374094749682486e+16</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4.955305762588785e+18</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.212322974878921e+20</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.854627912317601e+22</v>
+      </c>
+      <c r="P56" t="n">
+        <v>9.981162927382226e+23</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5.099817382263377e+25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.539817580448128e+27</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.259939855554561e+29</v>
       </c>
     </row>
     <row r="57">
@@ -886,7 +3742,58 @@
         <v>-0.1820161885290238</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1396509536707337</v>
+        <v>-6.172872982881851</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-291.823523252361</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-12095.07228553454</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-466151.4553174419</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-17690913.48641884</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-728474096.370837</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-24416947389.1641</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-716279688045.0942</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-16187878509290.64</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-110868334811086.1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.462897197543547e+16</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.12432064574527e+18</v>
+      </c>
+      <c r="N57" t="n">
+        <v>5.996604538440267e+19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.910001308407038e+21</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.326570795333285e+23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5.763248287933472e+24</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.445023592967131e+26</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.034724470918599e+28</v>
       </c>
     </row>
     <row r="58">
@@ -894,7 +3801,58 @@
         <v>-0.1244150338271487</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1657163046327254</v>
+        <v>-7.419225578831388</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-351.0897616373561</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-15725.60954101411</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-674922.0180076641</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-27226291.34318067</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1135333767.097949</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-40219086701.92825</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1299388097162.573</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-34979837555789.27</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-569682996260994</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.075452735565053e+16</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.561075151071757e+18</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.012532183249898e+20</v>
+      </c>
+      <c r="O58" t="n">
+        <v>5.553091365025044e+21</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.7545756604634e+23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.273771693501137e+25</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5.692974330790255e+26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.534793935427164e+28</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +3860,58 @@
         <v>-0.2070706678073113</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.2158717456268029</v>
+        <v>-9.140261199967314</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-445.690450674926</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-20586.84031226348</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-902816.5537789155</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-39138113.68629432</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1783012888.053081</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-70415460407.7525</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-2575476378056.479</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-81049250249423.53</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-1884851588300954</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-1.139682702575894e+16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.956747462222206e+18</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.704308194640391e+20</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.091224108109659e+22</v>
+      </c>
+      <c r="P59" t="n">
+        <v>6.074866156484835e+23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3.096682857125273e+25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.514829769314151e+27</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7.368718265950806e+28</v>
       </c>
     </row>
     <row r="60">
@@ -910,7 +3919,58 @@
         <v>-0.2521507862176968</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2434085372046686</v>
+        <v>-16.41659056322457</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-1109.852560761993</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-71768.69042130045</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4480665.743301836</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-280306378.1568304</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-18083891531.26582</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-1052629146174.625</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-58567003863250.96</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-2914312144369120</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-1.224438710238844e+17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-3.762923793709566e+18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-2.78994163515761e+19</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9.118020940614339e+21</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.207543216538888e+24</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.08849101936284e+26</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>8.288719771046738e+27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5.880887622803354e+29</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4.139358965861644e+31</v>
       </c>
     </row>
     <row r="61">
@@ -918,7 +3978,58 @@
         <v>-0.2628710625733858</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.2138441324529243</v>
+        <v>-40.855569434389</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-8497.975125099982</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-1791843.795066473</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-374279914.3033811</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-76674891347.92955</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-15407017006326.94</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2746493102314792</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-4.629802089812795e+17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-7.192201702786597e+19</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-1.011294168044211e+22</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-1.305261751563275e+24</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-1.687381017592338e+26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-2.255250570014162e+28</v>
+      </c>
+      <c r="O61" t="n">
+        <v>-2.805310383844462e+30</v>
+      </c>
+      <c r="P61" t="n">
+        <v>-3.342242102174886e+32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>-4.572903809557007e+34</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-7.692584499640661e+36</v>
+      </c>
+      <c r="S61" t="n">
+        <v>-1.31083993639454e+39</v>
       </c>
     </row>
     <row r="62">
@@ -926,7 +4037,58 @@
         <v>-0.1492751247279001</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.09111869749647811</v>
+        <v>-2.235919949314201</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-100.3599452444826</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-3488.418055606045</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-114161.2861361278</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-4128367.73624615</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-158230740.1350149</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-4515110875.192496</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-102377065619.3515</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1351685659692.104</v>
+      </c>
+      <c r="K62" t="n">
+        <v>27375037832516.84</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3030632516123084</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.505123613869564e+17</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.127481421885096e+18</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.344723720265159e+20</v>
+      </c>
+      <c r="P62" t="n">
+        <v>8.583489710770576e+21</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.030621052548928e+23</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.050847576381179e+25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.637541526268473e+26</v>
       </c>
     </row>
     <row r="63">
@@ -934,7 +4096,58 @@
         <v>-0.4817226268554734</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4405003228457873</v>
+        <v>-19.11661871299732</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-930.0163347606327</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-44718.8744916295</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-2045053.343836612</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-93072584.89835359</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-4478520340.518171</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-202617758073.9874</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-9301093874186.238</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-398295721039540.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-1.51014183367671e+16</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-4.789729913105462e+17</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-1.085514507988247e+19</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6.572641849629186e+19</v>
+      </c>
+      <c r="O63" t="n">
+        <v>3.359295727147326e+22</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3.025943889746993e+24</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.036445739473573e+26</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.235581695253979e+28</v>
+      </c>
+      <c r="S63" t="n">
+        <v>7.361268445309335e+29</v>
       </c>
     </row>
     <row r="64">
@@ -942,7 +4155,58 @@
         <v>-0.2850620294950607</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2660528363680922</v>
+        <v>-7.681977244012138</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-310.3111112403024</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-12072.34059450412</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-446437.8635037869</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-16152810.2628879</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-661046593.8502796</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-22412941312.13335</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-681971538801.2837</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-17260095122985.69</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-267072518723039.2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4199981213908328</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5.879627460396434e+17</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3.497764258372328e+19</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.771039687461042e+21</v>
+      </c>
+      <c r="P64" t="n">
+        <v>8.178947612061419e+22</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.538978661236423e+24</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.483843596971154e+26</v>
+      </c>
+      <c r="S64" t="n">
+        <v>6.197692817514436e+27</v>
       </c>
     </row>
     <row r="65">
@@ -950,7 +4214,58 @@
         <v>-0.2456735080486877</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2288769295655513</v>
+        <v>-22.24772601631185</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1888.185800481429</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-150182.8842463152</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-11123262.99880784</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-804011190.6542377</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-60827614794.64216</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-4338938617516.66</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-303732505800916.9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-1.933204364706188e+16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-1.101130756216919e+18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-5.470396915376793e+19</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-2.313479645291264e+21</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-6.02768153262768e+22</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3.50306743617375e+24</v>
+      </c>
+      <c r="P65" t="n">
+        <v>7.513444949828566e+26</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>7.984280153868503e+28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7.107471514572896e+30</v>
+      </c>
+      <c r="S65" t="n">
+        <v>6.206879274324155e+32</v>
       </c>
     </row>
     <row r="66">
@@ -958,7 +4273,58 @@
         <v>-0.08101856810283901</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.06736570766589559</v>
+        <v>-4.958652923125074</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-299.8832021355368</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-14932.78748138631</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-730112.4754309028</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-38378014.82429181</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1987070773.080916</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-84724246955.65919</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-3197205415662.906</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-100147181746231.7</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-2055511213050460</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.154577353989898e+16</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5.378970930575297e+18</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4.108569054058e+20</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.574803737925604e+22</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.445747210043135e+24</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>7.527331762030463e+25</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3.779820451972666e+27</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.891203574519438e+29</v>
       </c>
     </row>
     <row r="67">
@@ -966,7 +4332,58 @@
         <v>0.02665950280576842</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005499169068905142</v>
+        <v>-5.505065513523099</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-343.658775859285</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-17108.1096835793</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-802330.6126977913</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-36939639.03010148</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1685011054.059114</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-66983724764.05368</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2422845119390.866</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-73435393020008.59</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1554730321731370</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2324140314503008</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.60027939500219e+18</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2.051134339079768e+20</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.269841134579492e+22</v>
+      </c>
+      <c r="P67" t="n">
+        <v>6.904177272711984e+23</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3.446312192994996e+25</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.65160565126984e+27</v>
+      </c>
+      <c r="S67" t="n">
+        <v>7.883152564601416e+28</v>
       </c>
     </row>
   </sheetData>
